--- a/data/地层统计.xlsx
+++ b/data/地层统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\钻孔柱状图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4509B-5CD3-41A4-BCE2-BC9B91B869AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691CCF5-AC3F-4CA7-B5D7-224C0172E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="76">
   <si>
     <t>砂层</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>J312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>细沙</t>
   </si>
   <si>
@@ -169,10 +165,6 @@
   </si>
   <si>
     <t>泥岩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J313</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -293,11 +285,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>J1312</t>
+    <t>J1212</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>J1212</t>
+    <t>J1313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1312</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV67"/>
+  <dimension ref="A1:CN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AT36" sqref="AT36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -673,7 +669,7 @@
     <col min="11" max="11" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -950,32 +946,8 @@
       <c r="CN1" t="s">
         <v>35</v>
       </c>
-      <c r="CO1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1013,10 +985,10 @@
         <v>15.24</v>
       </c>
       <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
       </c>
       <c r="O2">
         <v>3.5</v>
@@ -1025,10 +997,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2">
         <v>3.6</v>
@@ -1037,10 +1009,10 @@
         <v>3.6</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="W2">
         <v>14.43</v>
@@ -1049,7 +1021,7 @@
         <v>14.43</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s">
         <v>25</v>
@@ -1061,7 +1033,7 @@
         <v>9.44</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD2" t="s">
         <v>20</v>
@@ -1073,10 +1045,10 @@
         <v>35.130000000000003</v>
       </c>
       <c r="AG2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI2">
         <v>17.2</v>
@@ -1085,10 +1057,10 @@
         <v>17.2</v>
       </c>
       <c r="AK2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AM2">
         <v>34.950000000000003</v>
@@ -1097,10 +1069,10 @@
         <v>34.950000000000003</v>
       </c>
       <c r="AO2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AQ2">
         <v>31.39</v>
@@ -1109,7 +1081,7 @@
         <v>31.39</v>
       </c>
       <c r="AS2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT2" t="s">
         <v>25</v>
@@ -1121,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="AW2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AY2">
         <v>7.3</v>
@@ -1133,10 +1105,10 @@
         <v>7.3</v>
       </c>
       <c r="BA2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BC2">
         <v>35.9</v>
@@ -1145,10 +1117,10 @@
         <v>35.9</v>
       </c>
       <c r="BE2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BG2">
         <v>29.9</v>
@@ -1157,10 +1129,10 @@
         <v>29.9</v>
       </c>
       <c r="BI2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BK2">
         <v>26.9</v>
@@ -1169,10 +1141,10 @@
         <v>26.9</v>
       </c>
       <c r="BM2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN2" t="s">
         <v>67</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>69</v>
       </c>
       <c r="BO2">
         <v>4.5</v>
@@ -1181,7 +1153,7 @@
         <v>4.5</v>
       </c>
       <c r="BQ2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR2" t="s">
         <v>20</v>
@@ -1193,10 +1165,10 @@
         <v>25.17</v>
       </c>
       <c r="BU2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BW2">
         <v>14.73</v>
@@ -1205,10 +1177,10 @@
         <v>14.73</v>
       </c>
       <c r="BY2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CA2">
         <v>47.9</v>
@@ -1217,7 +1189,7 @@
         <v>47.9</v>
       </c>
       <c r="CC2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD2" t="s">
         <v>20</v>
@@ -1229,10 +1201,10 @@
         <v>20.05</v>
       </c>
       <c r="CG2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CI2">
         <v>32.9</v>
@@ -1241,10 +1213,10 @@
         <v>32.9</v>
       </c>
       <c r="CK2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CM2">
         <v>31.9</v>
@@ -1252,32 +1224,8 @@
       <c r="CN2">
         <v>31.9</v>
       </c>
-      <c r="CO2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>8.5</v>
-      </c>
-      <c r="CR2">
-        <v>8.5</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CU2">
-        <v>3.5</v>
-      </c>
-      <c r="CV2">
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1318,10 +1266,10 @@
         <v>16.39</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <v>27.6</v>
@@ -1331,10 +1279,10 @@
         <v>24.1</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3">
         <v>12.8</v>
@@ -1344,10 +1292,10 @@
         <v>9.2000000000000011</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W3">
         <v>25.35</v>
@@ -1357,10 +1305,10 @@
         <v>10.920000000000002</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3">
         <v>29.56</v>
@@ -1370,10 +1318,10 @@
         <v>20.119999999999997</v>
       </c>
       <c r="AC3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE3">
         <v>36.130000000000003</v>
@@ -1383,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI3">
         <v>29.4</v>
@@ -1396,10 +1344,10 @@
         <v>12.2</v>
       </c>
       <c r="AK3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM3">
         <v>45.15</v>
@@ -1409,10 +1357,10 @@
         <v>10.199999999999996</v>
       </c>
       <c r="AO3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AQ3">
         <v>35.04</v>
@@ -1422,7 +1370,7 @@
         <v>3.6499999999999986</v>
       </c>
       <c r="AS3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT3" t="s">
         <v>26</v>
@@ -1435,10 +1383,10 @@
         <v>24.37</v>
       </c>
       <c r="AW3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY3">
         <v>64.05</v>
@@ -1448,10 +1396,10 @@
         <v>56.75</v>
       </c>
       <c r="BA3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BC3">
         <v>41.9</v>
@@ -1461,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="BE3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BG3">
         <v>68.3</v>
@@ -1474,10 +1422,10 @@
         <v>38.4</v>
       </c>
       <c r="BI3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BK3">
         <v>35.4</v>
@@ -1487,10 +1435,10 @@
         <v>8.5</v>
       </c>
       <c r="BM3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BO3">
         <v>66.3</v>
@@ -1500,10 +1448,10 @@
         <v>61.8</v>
       </c>
       <c r="BQ3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BS3">
         <v>29.31</v>
@@ -1513,10 +1461,10 @@
         <v>4.139999999999997</v>
       </c>
       <c r="BU3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW3">
         <v>33.880000000000003</v>
@@ -1526,7 +1474,7 @@
         <v>19.150000000000002</v>
       </c>
       <c r="BY3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ3" t="s">
         <v>3</v>
@@ -1539,10 +1487,10 @@
         <v>0.5</v>
       </c>
       <c r="CC3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CE3">
         <v>30.5</v>
@@ -1552,7 +1500,7 @@
         <v>10.45</v>
       </c>
       <c r="CG3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH3" t="s">
         <v>11</v>
@@ -1565,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="CK3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CM3">
         <v>35.9</v>
@@ -1577,34 +1525,8 @@
         <f>CM3-CM2</f>
         <v>4</v>
       </c>
-      <c r="CO3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ3">
-        <v>46.53</v>
-      </c>
-      <c r="CR3">
-        <f>CQ3-CQ2</f>
-        <v>38.03</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU3">
-        <v>27.6</v>
-      </c>
-      <c r="CV3">
-        <f>CU3-CU2</f>
-        <v>24.1</v>
-      </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1615,7 +1537,7 @@
         <v>47.93</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D50" si="1">C4-C3</f>
+        <f t="shared" ref="D4:D49" si="1">C4-C3</f>
         <v>1.3999999999999986</v>
       </c>
       <c r="E4" t="s">
@@ -1645,10 +1567,10 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>33.07</v>
@@ -1658,10 +1580,10 @@
         <v>5.4699999999999989</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4">
         <v>35.119999999999997</v>
@@ -1671,7 +1593,7 @@
         <v>22.319999999999997</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
         <v>11</v>
@@ -1684,7 +1606,7 @@
         <v>15.949999999999996</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s">
         <v>5</v>
@@ -1697,10 +1619,10 @@
         <v>8.91</v>
       </c>
       <c r="AC4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
         <v>49</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>51</v>
       </c>
       <c r="AE4">
         <v>47.64</v>
@@ -1710,7 +1632,7 @@
         <v>11.509999999999998</v>
       </c>
       <c r="AG4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s">
         <v>27</v>
@@ -1723,7 +1645,7 @@
         <v>18.300000000000004</v>
       </c>
       <c r="AK4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL4" t="s">
         <v>27</v>
@@ -1736,7 +1658,7 @@
         <v>2.4500000000000028</v>
       </c>
       <c r="AO4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP4" t="s">
         <v>5</v>
@@ -1749,10 +1671,10 @@
         <v>27.35</v>
       </c>
       <c r="AS4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AU4">
         <v>33.07</v>
@@ -1762,7 +1684,7 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="AW4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX4" t="s">
         <v>5</v>
@@ -1775,7 +1697,7 @@
         <v>21.290000000000006</v>
       </c>
       <c r="BA4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB4" t="s">
         <v>9</v>
@@ -1788,10 +1710,10 @@
         <v>5.7000000000000028</v>
       </c>
       <c r="BE4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BG4">
         <v>76.400000000000006</v>
@@ -1801,7 +1723,7 @@
         <v>8.1000000000000085</v>
       </c>
       <c r="BI4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ4" t="s">
         <v>5</v>
@@ -1814,7 +1736,7 @@
         <v>36.9</v>
       </c>
       <c r="BM4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN4" t="s">
         <v>7</v>
@@ -1827,7 +1749,7 @@
         <v>25.13000000000001</v>
       </c>
       <c r="BQ4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR4" t="s">
         <v>20</v>
@@ -1840,7 +1762,7 @@
         <v>18.419999999999998</v>
       </c>
       <c r="BU4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV4" t="s">
         <v>20</v>
@@ -1853,7 +1775,7 @@
         <v>4.1299999999999955</v>
       </c>
       <c r="BY4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ4" t="s">
         <v>5</v>
@@ -1866,10 +1788,10 @@
         <v>34.000000000000007</v>
       </c>
       <c r="CC4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="CE4">
         <v>34.5</v>
@@ -1879,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="CG4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH4" t="s">
         <v>3</v>
@@ -1892,7 +1814,7 @@
         <v>20.200000000000003</v>
       </c>
       <c r="CK4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL4" t="s">
         <v>5</v>
@@ -1904,34 +1826,8 @@
         <f t="shared" ref="CN4:CN35" si="22">CM4-CM3</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="CO4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ4">
-        <v>47.93</v>
-      </c>
-      <c r="CR4">
-        <f t="shared" ref="CR4:CR50" si="23">CQ4-CQ3</f>
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU4">
-        <v>33.07</v>
-      </c>
-      <c r="CV4">
-        <f t="shared" ref="CV4:CV35" si="24">CU4-CU3</f>
-        <v>5.4699999999999989</v>
-      </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1868,7 @@
         <v>2.6900000000000048</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
         <v>3</v>
@@ -1985,7 +1881,7 @@
         <v>12.68</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
         <v>3</v>
@@ -1998,7 +1894,7 @@
         <v>13.89</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
         <v>9</v>
@@ -2011,7 +1907,7 @@
         <v>10.160000000000004</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s">
         <v>3</v>
@@ -2024,10 +1920,10 @@
         <v>9.89</v>
       </c>
       <c r="AC5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE5">
         <v>48.67</v>
@@ -2037,10 +1933,10 @@
         <v>1.0300000000000011</v>
       </c>
       <c r="AG5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI5">
         <v>48.3</v>
@@ -2050,7 +1946,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="AK5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL5" t="s">
         <v>11</v>
@@ -2063,7 +1959,7 @@
         <v>7.2899999999999991</v>
       </c>
       <c r="AO5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP5" t="s">
         <v>7</v>
@@ -2076,7 +1972,7 @@
         <v>10.819999999999993</v>
       </c>
       <c r="AS5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT5" t="s">
         <v>3</v>
@@ -2089,7 +1985,7 @@
         <v>10.280000000000001</v>
       </c>
       <c r="AW5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX5" t="s">
         <v>7</v>
@@ -2102,7 +1998,7 @@
         <v>22.22999999999999</v>
       </c>
       <c r="BA5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB5" t="s">
         <v>11</v>
@@ -2115,7 +2011,7 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="BE5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF5" t="s">
         <v>11</v>
@@ -2128,7 +2024,7 @@
         <v>3.5999999999999943</v>
       </c>
       <c r="BI5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ5" t="s">
         <v>7</v>
@@ -2141,7 +2037,7 @@
         <v>9.2000000000000028</v>
       </c>
       <c r="BM5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN5" t="s">
         <v>5</v>
@@ -2154,10 +2050,10 @@
         <v>24.039999999999992</v>
       </c>
       <c r="BQ5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BS5">
         <v>51.51</v>
@@ -2167,10 +2063,10 @@
         <v>3.7800000000000011</v>
       </c>
       <c r="BU5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW5">
         <v>45.05</v>
@@ -2180,7 +2076,7 @@
         <v>7.0399999999999991</v>
       </c>
       <c r="BY5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ5" t="s">
         <v>7</v>
@@ -2193,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="CC5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CE5">
         <v>46.56</v>
@@ -2206,7 +2102,7 @@
         <v>12.060000000000002</v>
       </c>
       <c r="CG5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH5" t="s">
         <v>27</v>
@@ -2219,7 +2115,7 @@
         <v>2.7999999999999972</v>
       </c>
       <c r="CK5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL5" t="s">
         <v>3</v>
@@ -2231,34 +2127,8 @@
         <f t="shared" si="22"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="CO5" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ5">
-        <v>75.930000000000007</v>
-      </c>
-      <c r="CR5">
-        <f t="shared" si="23"/>
-        <v>28.000000000000007</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU5">
-        <v>45.75</v>
-      </c>
-      <c r="CV5">
-        <f t="shared" si="24"/>
-        <v>12.68</v>
-      </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2169,7 @@
         <v>6.5999999999999943</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -2312,7 +2182,7 @@
         <v>1.75</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
         <v>27</v>
@@ -2325,7 +2195,7 @@
         <v>2.2000000000000028</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
         <v>5</v>
@@ -2338,7 +2208,7 @@
         <v>33.630000000000003</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -2351,7 +2221,7 @@
         <v>27.689999999999998</v>
       </c>
       <c r="AC6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD6" t="s">
         <v>9</v>
@@ -2364,7 +2234,7 @@
         <v>6.9399999999999977</v>
       </c>
       <c r="AG6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s">
         <v>5</v>
@@ -2377,7 +2247,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="AK6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL6" t="s">
         <v>3</v>
@@ -2390,7 +2260,7 @@
         <v>5.9600000000000009</v>
       </c>
       <c r="AO6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP6" t="s">
         <v>5</v>
@@ -2403,7 +2273,7 @@
         <v>6.1000000000000085</v>
       </c>
       <c r="AS6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT6" t="s">
         <v>5</v>
@@ -2416,7 +2286,7 @@
         <v>57.580000000000005</v>
       </c>
       <c r="AW6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX6" t="s">
         <v>11</v>
@@ -2429,7 +2299,7 @@
         <v>11.710000000000008</v>
       </c>
       <c r="BA6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB6" t="s">
         <v>11</v>
@@ -2442,10 +2312,10 @@
         <v>4</v>
       </c>
       <c r="BE6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BG6">
         <v>82</v>
@@ -2455,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="BI6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ6" t="s">
         <v>11</v>
@@ -2468,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="BM6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN6" t="s">
         <v>11</v>
@@ -2481,7 +2351,7 @@
         <v>19.960000000000008</v>
       </c>
       <c r="BQ6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR6" t="s">
         <v>3</v>
@@ -2494,7 +2364,7 @@
         <v>0.5</v>
       </c>
       <c r="BU6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV6" t="s">
         <v>20</v>
@@ -2507,7 +2377,7 @@
         <v>8.6200000000000045</v>
       </c>
       <c r="BY6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ6" t="s">
         <v>5</v>
@@ -2520,7 +2390,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="CC6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD6" t="s">
         <v>11</v>
@@ -2533,7 +2403,7 @@
         <v>3.1799999999999997</v>
       </c>
       <c r="CG6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH6" t="s">
         <v>11</v>
@@ -2546,7 +2416,7 @@
         <v>6.3000000000000043</v>
       </c>
       <c r="CK6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL6" t="s">
         <v>5</v>
@@ -2558,34 +2428,8 @@
         <f t="shared" si="22"/>
         <v>7.6999999999999957</v>
       </c>
-      <c r="CO6" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ6">
-        <v>77.63</v>
-      </c>
-      <c r="CR6">
-        <f t="shared" si="23"/>
-        <v>1.6999999999999886</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU6">
-        <v>47.5</v>
-      </c>
-      <c r="CV6">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
-      </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2626,10 +2470,10 @@
         <v>58.339999999999996</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>50.54</v>
@@ -2639,7 +2483,7 @@
         <v>3.0399999999999991</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
         <v>11</v>
@@ -2652,7 +2496,7 @@
         <v>12.670000000000002</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
         <v>3</v>
@@ -2665,7 +2509,7 @@
         <v>2.5999999999999943</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
         <v>7</v>
@@ -2678,7 +2522,7 @@
         <v>23.22</v>
       </c>
       <c r="AC7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD7" t="s">
         <v>7</v>
@@ -2691,10 +2535,10 @@
         <v>2.2000000000000028</v>
       </c>
       <c r="AG7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH7" t="s">
         <v>55</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>57</v>
       </c>
       <c r="AI7">
         <v>83.9</v>
@@ -2704,7 +2548,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="AK7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL7" t="s">
         <v>5</v>
@@ -2717,7 +2561,7 @@
         <v>21.71</v>
       </c>
       <c r="AO7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP7" t="s">
         <v>7</v>
@@ -2730,7 +2574,7 @@
         <v>1.5</v>
       </c>
       <c r="AS7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT7" t="s">
         <v>27</v>
@@ -2743,7 +2587,7 @@
         <v>3.7299999999999898</v>
       </c>
       <c r="AW7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX7" t="s">
         <v>3</v>
@@ -2756,7 +2600,7 @@
         <v>7.019999999999996</v>
       </c>
       <c r="BA7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB7" t="s">
         <v>7</v>
@@ -2769,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="BE7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF7" t="s">
         <v>5</v>
@@ -2782,7 +2626,7 @@
         <v>4.9000000000000057</v>
       </c>
       <c r="BI7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ7" t="s">
         <v>3</v>
@@ -2795,7 +2639,7 @@
         <v>5.9000000000000057</v>
       </c>
       <c r="BM7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN7" t="s">
         <v>3</v>
@@ -2808,7 +2652,7 @@
         <v>3.5699999999999932</v>
       </c>
       <c r="BQ7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR7" t="s">
         <v>7</v>
@@ -2821,10 +2665,10 @@
         <v>2.5</v>
       </c>
       <c r="BU7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW7">
         <v>71.23</v>
@@ -2834,7 +2678,7 @@
         <v>17.560000000000002</v>
       </c>
       <c r="BY7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ7" t="s">
         <v>7</v>
@@ -2847,7 +2691,7 @@
         <v>18.900000000000006</v>
       </c>
       <c r="CC7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD7" t="s">
         <v>3</v>
@@ -2860,7 +2704,7 @@
         <v>7.5300000000000011</v>
       </c>
       <c r="CG7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH7" t="s">
         <v>5</v>
@@ -2873,7 +2717,7 @@
         <v>6.7000000000000028</v>
       </c>
       <c r="CK7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL7" t="s">
         <v>7</v>
@@ -2885,34 +2729,8 @@
         <f t="shared" si="22"/>
         <v>29.699999999999996</v>
       </c>
-      <c r="CO7" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ7">
-        <v>87.03</v>
-      </c>
-      <c r="CR7">
-        <f t="shared" si="23"/>
-        <v>9.4000000000000057</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>27</v>
-      </c>
-      <c r="CU7">
-        <v>50.54</v>
-      </c>
-      <c r="CV7">
-        <f t="shared" si="24"/>
-        <v>3.0399999999999991</v>
-      </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2953,7 +2771,7 @@
         <v>0.35000000000000853</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
         <v>3</v>
@@ -2966,7 +2784,7 @@
         <v>7.3000000000000043</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
         <v>5</v>
@@ -2979,7 +2797,7 @@
         <v>13.68</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
         <v>5</v>
@@ -2992,7 +2810,7 @@
         <v>19.430000000000007</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s">
         <v>5</v>
@@ -3005,7 +2823,7 @@
         <v>4.1099999999999994</v>
       </c>
       <c r="AC8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD8" t="s">
         <v>5</v>
@@ -3018,7 +2836,7 @@
         <v>14.230000000000004</v>
       </c>
       <c r="AG8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH8" t="s">
         <v>7</v>
@@ -3031,7 +2849,7 @@
         <v>21.799999999999997</v>
       </c>
       <c r="AK8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL8" t="s">
         <v>5</v>
@@ -3044,7 +2862,7 @@
         <v>10.899999999999991</v>
       </c>
       <c r="AO8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP8" t="s">
         <v>3</v>
@@ -3057,7 +2875,7 @@
         <v>4.8400000000000034</v>
       </c>
       <c r="AS8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT8" t="s">
         <v>11</v>
@@ -3070,7 +2888,7 @@
         <v>5.3299999999999983</v>
       </c>
       <c r="AW8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX8" t="s">
         <v>11</v>
@@ -3083,7 +2901,7 @@
         <v>5.730000000000004</v>
       </c>
       <c r="BA8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB8" t="s">
         <v>5</v>
@@ -3096,7 +2914,7 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="BE8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF8" t="s">
         <v>5</v>
@@ -3109,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="BI8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ8" t="s">
         <v>7</v>
@@ -3122,7 +2940,7 @@
         <v>22.399999999999991</v>
       </c>
       <c r="BM8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN8" t="s">
         <v>11</v>
@@ -3135,7 +2953,7 @@
         <v>3.7700000000000102</v>
       </c>
       <c r="BQ8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR8" t="s">
         <v>3</v>
@@ -3148,7 +2966,7 @@
         <v>6.980000000000004</v>
       </c>
       <c r="BU8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV8" t="s">
         <v>3</v>
@@ -3161,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="BY8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ8" t="s">
         <v>3</v>
@@ -3174,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="CC8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD8" t="s">
         <v>5</v>
@@ -3187,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="CG8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH8" t="s">
         <v>7</v>
@@ -3200,7 +3018,7 @@
         <v>60</v>
       </c>
       <c r="CK8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL8" t="s">
         <v>7</v>
@@ -3212,34 +3030,8 @@
         <f t="shared" si="22"/>
         <v>21.300000000000011</v>
       </c>
-      <c r="CO8" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ8">
-        <v>91.21</v>
-      </c>
-      <c r="CR8">
-        <f t="shared" si="23"/>
-        <v>4.1799999999999926</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU8">
-        <v>57.84</v>
-      </c>
-      <c r="CV8">
-        <f t="shared" si="24"/>
-        <v>7.3000000000000043</v>
-      </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3280,7 +3072,7 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
@@ -3293,7 +3085,7 @@
         <v>17.099999999999994</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
         <v>3</v>
@@ -3306,7 +3098,7 @@
         <v>5.4099999999999966</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>18</v>
@@ -3319,7 +3111,7 @@
         <v>0.97999999999998977</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
         <v>7</v>
@@ -3332,7 +3124,7 @@
         <v>10.260000000000005</v>
       </c>
       <c r="AC9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD9" t="s">
         <v>7</v>
@@ -3345,7 +3137,7 @@
         <v>16.669999999999987</v>
       </c>
       <c r="AG9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH9" t="s">
         <v>18</v>
@@ -3358,7 +3150,7 @@
         <v>0.39999999999999147</v>
       </c>
       <c r="AK9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL9" t="s">
         <v>7</v>
@@ -3371,7 +3163,7 @@
         <v>10.320000000000007</v>
       </c>
       <c r="AO9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP9" t="s">
         <v>5</v>
@@ -3384,7 +3176,7 @@
         <v>8.3499999999999943</v>
       </c>
       <c r="AS9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT9" t="s">
         <v>3</v>
@@ -3397,7 +3189,7 @@
         <v>19.929999999999993</v>
       </c>
       <c r="AW9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX9" t="s">
         <v>3</v>
@@ -3410,7 +3202,7 @@
         <v>4.9300000000000068</v>
       </c>
       <c r="BA9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB9" t="s">
         <v>7</v>
@@ -3423,10 +3215,10 @@
         <v>33</v>
       </c>
       <c r="BE9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BG9">
         <v>98.9</v>
@@ -3436,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="BI9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ9" t="s">
         <v>5</v>
@@ -3449,7 +3241,7 @@
         <v>3.9000000000000057</v>
       </c>
       <c r="BM9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN9" s="1" t="s">
         <v>13</v>
@@ -3462,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="BQ9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR9" t="s">
         <v>9</v>
@@ -3475,7 +3267,7 @@
         <v>1.3999999999999986</v>
       </c>
       <c r="BU9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV9" t="s">
         <v>7</v>
@@ -3488,7 +3280,7 @@
         <v>6.8499999999999943</v>
       </c>
       <c r="BY9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ9" t="s">
         <v>9</v>
@@ -3501,7 +3293,7 @@
         <v>6.7999999999999972</v>
       </c>
       <c r="CC9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD9" t="s">
         <v>3</v>
@@ -3514,7 +3306,7 @@
         <v>2.6999999999999957</v>
       </c>
       <c r="CG9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH9" t="s">
         <v>27</v>
@@ -3527,10 +3319,10 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="CK9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="CM9">
         <v>114.1</v>
@@ -3539,34 +3331,8 @@
         <f t="shared" si="22"/>
         <v>9.1999999999999886</v>
       </c>
-      <c r="CO9" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ9">
-        <v>92.81</v>
-      </c>
-      <c r="CR9">
-        <f t="shared" si="23"/>
-        <v>1.6000000000000085</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU9">
-        <v>74.94</v>
-      </c>
-      <c r="CV9">
-        <f t="shared" si="24"/>
-        <v>17.099999999999994</v>
-      </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3373,7 @@
         <v>0.64000000000000057</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
         <v>7</v>
@@ -3620,7 +3386,7 @@
         <v>44.39</v>
       </c>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
         <v>5</v>
@@ -3633,7 +3399,7 @@
         <v>35.97</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
         <v>27</v>
@@ -3646,7 +3412,7 @@
         <v>3.1800000000000068</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>31</v>
@@ -3659,10 +3425,10 @@
         <v>2.2999999999999972</v>
       </c>
       <c r="AC10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE10">
         <v>102.58</v>
@@ -3672,10 +3438,10 @@
         <v>13.870000000000005</v>
       </c>
       <c r="AG10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI10">
         <v>106.4</v>
@@ -3685,7 +3451,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="AK10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL10" t="s">
         <v>5</v>
@@ -3698,10 +3464,10 @@
         <v>4.0799999999999983</v>
       </c>
       <c r="AO10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ10">
         <v>102.51</v>
@@ -3711,7 +3477,7 @@
         <v>8.5100000000000051</v>
       </c>
       <c r="AS10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT10" t="s">
         <v>11</v>
@@ -3724,7 +3490,7 @@
         <v>0.58000000000001251</v>
       </c>
       <c r="AW10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX10" t="s">
         <v>11</v>
@@ -3737,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="BA10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB10" t="s">
         <v>9</v>
@@ -3750,7 +3516,7 @@
         <v>7.5</v>
       </c>
       <c r="BE10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF10" t="s">
         <v>11</v>
@@ -3763,10 +3529,10 @@
         <v>1.7999999999999972</v>
       </c>
       <c r="BI10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BK10">
         <v>118.7</v>
@@ -3776,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="BM10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN10" t="s">
         <v>3</v>
@@ -3789,7 +3555,7 @@
         <v>4.2999999999999829</v>
       </c>
       <c r="BQ10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR10" t="s">
         <v>5</v>
@@ -3802,7 +3568,7 @@
         <v>21.409999999999997</v>
       </c>
       <c r="BU10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV10" t="s">
         <v>3</v>
@@ -3815,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="BY10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ10" t="s">
         <v>11</v>
@@ -3828,7 +3594,7 @@
         <v>7.5999999999999943</v>
       </c>
       <c r="CC10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD10" t="s">
         <v>7</v>
@@ -3841,7 +3607,7 @@
         <v>7.7600000000000051</v>
       </c>
       <c r="CG10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH10" t="s">
         <v>18</v>
@@ -3854,7 +3620,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="CK10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL10" t="s">
         <v>3</v>
@@ -3866,34 +3632,8 @@
         <f t="shared" si="22"/>
         <v>20.300000000000011</v>
       </c>
-      <c r="CO10" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ10">
-        <v>119.31</v>
-      </c>
-      <c r="CR10">
-        <f t="shared" si="23"/>
-        <v>26.5</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU10">
-        <v>119.33</v>
-      </c>
-      <c r="CV10">
-        <f t="shared" si="24"/>
-        <v>44.39</v>
-      </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +3674,7 @@
         <v>3.8599999999999994</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
         <v>5</v>
@@ -3947,7 +3687,7 @@
         <v>6.1800000000000068</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
         <v>7</v>
@@ -3960,7 +3700,7 @@
         <v>14.129999999999995</v>
       </c>
       <c r="U11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
         <v>3</v>
@@ -3973,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s">
         <v>11</v>
@@ -3986,7 +3726,7 @@
         <v>5.1200000000000045</v>
       </c>
       <c r="AC11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD11" t="s">
         <v>11</v>
@@ -3999,7 +3739,7 @@
         <v>2.7000000000000028</v>
       </c>
       <c r="AG11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH11" t="s">
         <v>27</v>
@@ -4012,7 +3752,7 @@
         <v>0.89999999999999147</v>
       </c>
       <c r="AK11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL11" t="s">
         <v>3</v>
@@ -4025,7 +3765,7 @@
         <v>0.34999999999999432</v>
       </c>
       <c r="AO11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP11" t="s">
         <v>11</v>
@@ -4038,7 +3778,7 @@
         <v>8.5599999999999881</v>
       </c>
       <c r="AS11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>13</v>
@@ -4051,7 +3791,7 @@
         <v>3.3100000000000023</v>
       </c>
       <c r="AW11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>13</v>
@@ -4064,7 +3804,7 @@
         <v>3.1999999999999886</v>
       </c>
       <c r="BA11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB11" t="s">
         <v>11</v>
@@ -4077,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="BE11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF11" t="s">
         <v>9</v>
@@ -4090,7 +3830,7 @@
         <v>10.200000000000003</v>
       </c>
       <c r="BI11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ11" t="s">
         <v>9</v>
@@ -4103,7 +3843,7 @@
         <v>7.2000000000000028</v>
       </c>
       <c r="BM11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN11" t="s">
         <v>11</v>
@@ -4116,7 +3856,7 @@
         <v>23.180000000000007</v>
       </c>
       <c r="BQ11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR11" t="s">
         <v>3</v>
@@ -4129,7 +3869,7 @@
         <v>1.2999999999999972</v>
       </c>
       <c r="BU11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV11" t="s">
         <v>7</v>
@@ -4142,7 +3882,7 @@
         <v>4.730000000000004</v>
       </c>
       <c r="BY11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ11" t="s">
         <v>3</v>
@@ -4155,7 +3895,7 @@
         <v>9.6000000000000085</v>
       </c>
       <c r="CC11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD11" t="s">
         <v>5</v>
@@ -4168,7 +3908,7 @@
         <v>15.709999999999994</v>
       </c>
       <c r="CG11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH11" t="s">
         <v>27</v>
@@ -4181,7 +3921,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="CK11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL11" t="s">
         <v>9</v>
@@ -4193,34 +3933,8 @@
         <f t="shared" si="22"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="CO11" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ11">
-        <v>122.63</v>
-      </c>
-      <c r="CR11">
-        <f t="shared" si="23"/>
-        <v>3.3199999999999932</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU11">
-        <v>125.51</v>
-      </c>
-      <c r="CV11">
-        <f t="shared" si="24"/>
-        <v>6.1800000000000068</v>
-      </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4261,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
@@ -4274,7 +3988,7 @@
         <v>10.749999999999986</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
         <v>11</v>
@@ -4287,7 +4001,7 @@
         <v>13.240000000000009</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
         <v>27</v>
@@ -4300,7 +4014,7 @@
         <v>6.9299999999999926</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s">
         <v>3</v>
@@ -4313,7 +4027,7 @@
         <v>11.639999999999986</v>
       </c>
       <c r="AC12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD12" t="s">
         <v>3</v>
@@ -4326,7 +4040,7 @@
         <v>1.7199999999999989</v>
       </c>
       <c r="AG12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH12" t="s">
         <v>11</v>
@@ -4339,7 +4053,7 @@
         <v>6.6000000000000085</v>
       </c>
       <c r="AK12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>22</v>
@@ -4352,7 +4066,7 @@
         <v>1.3000000000000114</v>
       </c>
       <c r="AO12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP12" t="s">
         <v>3</v>
@@ -4365,7 +4079,7 @@
         <v>10.200000000000003</v>
       </c>
       <c r="AS12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT12" t="s">
         <v>11</v>
@@ -4378,7 +4092,7 @@
         <v>4.2599999999999909</v>
       </c>
       <c r="AW12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX12" t="s">
         <v>11</v>
@@ -4391,7 +4105,7 @@
         <v>20.640000000000015</v>
       </c>
       <c r="BA12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB12" t="s">
         <v>3</v>
@@ -4404,7 +4118,7 @@
         <v>13.150000000000006</v>
       </c>
       <c r="BE12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF12" t="s">
         <v>11</v>
@@ -4417,7 +4131,7 @@
         <v>6.3999999999999915</v>
       </c>
       <c r="BI12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ12" t="s">
         <v>11</v>
@@ -4430,7 +4144,7 @@
         <v>8.0999999999999943</v>
       </c>
       <c r="BM12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN12" t="s">
         <v>3</v>
@@ -4443,7 +4157,7 @@
         <v>19.680000000000007</v>
       </c>
       <c r="BQ12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR12" t="s">
         <v>7</v>
@@ -4456,7 +4170,7 @@
         <v>39.38000000000001</v>
       </c>
       <c r="BU12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV12" t="s">
         <v>3</v>
@@ -4469,7 +4183,7 @@
         <v>4.5</v>
       </c>
       <c r="BY12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ12" t="s">
         <v>9</v>
@@ -4482,7 +4196,7 @@
         <v>5.0499999999999829</v>
       </c>
       <c r="CC12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD12" t="s">
         <v>7</v>
@@ -4495,7 +4209,7 @@
         <v>1.4000000000000057</v>
       </c>
       <c r="CG12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH12" t="s">
         <v>3</v>
@@ -4508,7 +4222,7 @@
         <v>0.29999999999998295</v>
       </c>
       <c r="CK12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>13</v>
@@ -4520,34 +4234,8 @@
         <f t="shared" si="22"/>
         <v>2.6999999999999886</v>
       </c>
-      <c r="CO12" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ12">
-        <v>129.71</v>
-      </c>
-      <c r="CR12">
-        <f t="shared" si="23"/>
-        <v>7.0800000000000125</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU12">
-        <v>136.26</v>
-      </c>
-      <c r="CV12">
-        <f t="shared" si="24"/>
-        <v>10.749999999999986</v>
-      </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4276,7 @@
         <v>6.8999999999999915</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
         <v>3</v>
@@ -4601,7 +4289,7 @@
         <v>2.7000000000000171</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
         <v>3</v>
@@ -4614,7 +4302,7 @@
         <v>4.7700000000000102</v>
       </c>
       <c r="U13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s">
         <v>11</v>
@@ -4627,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s">
         <v>11</v>
@@ -4640,7 +4328,7 @@
         <v>12.840000000000003</v>
       </c>
       <c r="AC13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD13" t="s">
         <v>11</v>
@@ -4653,7 +4341,7 @@
         <v>11.439999999999998</v>
       </c>
       <c r="AG13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH13" t="s">
         <v>3</v>
@@ -4666,7 +4354,7 @@
         <v>1.2999999999999972</v>
       </c>
       <c r="AK13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL13" t="s">
         <v>11</v>
@@ -4679,7 +4367,7 @@
         <v>3.1099999999999994</v>
       </c>
       <c r="AO13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP13" t="s">
         <v>11</v>
@@ -4692,7 +4380,7 @@
         <v>5.9399999999999977</v>
       </c>
       <c r="AS13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT13" t="s">
         <v>18</v>
@@ -4705,7 +4393,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="AW13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX13" t="s">
         <v>3</v>
@@ -4718,7 +4406,7 @@
         <v>22.799999999999983</v>
       </c>
       <c r="BA13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB13" t="s">
         <v>11</v>
@@ -4731,7 +4419,7 @@
         <v>0.29999999999998295</v>
       </c>
       <c r="BE13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF13" t="s">
         <v>3</v>
@@ -4744,7 +4432,7 @@
         <v>5.6000000000000085</v>
       </c>
       <c r="BI13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ13" t="s">
         <v>9</v>
@@ -4757,7 +4445,7 @@
         <v>1.1999999999999886</v>
       </c>
       <c r="BM13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN13" s="1" t="s">
         <v>15</v>
@@ -4770,10 +4458,10 @@
         <v>2.3199999999999932</v>
       </c>
       <c r="BQ13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BS13">
         <v>128.68</v>
@@ -4783,7 +4471,7 @@
         <v>3.7000000000000028</v>
       </c>
       <c r="BU13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV13" t="s">
         <v>27</v>
@@ -4796,7 +4484,7 @@
         <v>8.7199999999999989</v>
       </c>
       <c r="BY13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ13" s="1" t="s">
         <v>13</v>
@@ -4809,7 +4497,7 @@
         <v>2.8500000000000227</v>
       </c>
       <c r="CC13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD13" t="s">
         <v>5</v>
@@ -4822,7 +4510,7 @@
         <v>2.5</v>
       </c>
       <c r="CG13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH13" t="s">
         <v>11</v>
@@ -4835,7 +4523,7 @@
         <v>8.1500000000000057</v>
       </c>
       <c r="CK13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL13" t="s">
         <v>11</v>
@@ -4847,34 +4535,8 @@
         <f t="shared" si="22"/>
         <v>5.9000000000000057</v>
       </c>
-      <c r="CO13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ13">
-        <v>133.13</v>
-      </c>
-      <c r="CR13">
-        <f t="shared" si="23"/>
-        <v>3.4199999999999875</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU13">
-        <v>138.96</v>
-      </c>
-      <c r="CV13">
-        <f t="shared" si="24"/>
-        <v>2.7000000000000171</v>
-      </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4915,7 +4577,7 @@
         <v>15.209999999999994</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
         <v>11</v>
@@ -4928,7 +4590,7 @@
         <v>10.900000000000006</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
         <v>11</v>
@@ -4941,7 +4603,7 @@
         <v>9.0599999999999739</v>
       </c>
       <c r="U14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s">
         <v>27</v>
@@ -4954,7 +4616,7 @@
         <v>9.980000000000004</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>13</v>
@@ -4967,7 +4629,7 @@
         <v>3.3000000000000114</v>
       </c>
       <c r="AC14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD14" t="s">
         <v>3</v>
@@ -4980,7 +4642,7 @@
         <v>15.430000000000007</v>
       </c>
       <c r="AG14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH14" t="s">
         <v>9</v>
@@ -4993,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="AK14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL14" t="s">
         <v>3</v>
@@ -5006,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="AO14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP14" t="s">
         <v>27</v>
@@ -5019,7 +4681,7 @@
         <v>0.35999999999999943</v>
       </c>
       <c r="AS14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT14" t="s">
         <v>3</v>
@@ -5032,7 +4694,7 @@
         <v>2.6000000000000227</v>
       </c>
       <c r="AW14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX14" t="s">
         <v>11</v>
@@ -5045,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="BA14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB14" s="1" t="s">
         <v>13</v>
@@ -5058,7 +4720,7 @@
         <v>3.0999999999999943</v>
       </c>
       <c r="BE14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF14" t="s">
         <v>9</v>
@@ -5071,10 +4733,10 @@
         <v>2.6999999999999886</v>
       </c>
       <c r="BI14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BK14">
         <v>135.30000000000001</v>
@@ -5084,7 +4746,7 @@
         <v>0.10000000000002274</v>
       </c>
       <c r="BM14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN14" t="s">
         <v>11</v>
@@ -5097,7 +4759,7 @@
         <v>15.900000000000006</v>
       </c>
       <c r="BQ14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR14" t="s">
         <v>11</v>
@@ -5110,7 +4772,7 @@
         <v>9.6999999999999886</v>
       </c>
       <c r="BU14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV14" t="s">
         <v>11</v>
@@ -5123,7 +4785,7 @@
         <v>11.480000000000004</v>
       </c>
       <c r="BY14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ14" t="s">
         <v>11</v>
@@ -5136,7 +4798,7 @@
         <v>2.7999999999999829</v>
       </c>
       <c r="CC14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD14" t="s">
         <v>21</v>
@@ -5149,7 +4811,7 @@
         <v>2.1499999999999915</v>
       </c>
       <c r="CG14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH14" t="s">
         <v>18</v>
@@ -5162,7 +4824,7 @@
         <v>5.0000000000011369E-2</v>
       </c>
       <c r="CK14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL14" t="s">
         <v>18</v>
@@ -5174,34 +4836,8 @@
         <f t="shared" si="22"/>
         <v>0.19999999999998863</v>
       </c>
-      <c r="CO14" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ14">
-        <v>138.61000000000001</v>
-      </c>
-      <c r="CR14">
-        <f t="shared" si="23"/>
-        <v>5.4800000000000182</v>
-      </c>
-      <c r="CS14" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU14">
-        <v>149.86000000000001</v>
-      </c>
-      <c r="CV14">
-        <f t="shared" si="24"/>
-        <v>10.900000000000006</v>
-      </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5242,7 +4878,7 @@
         <v>3.1000000000000227</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>13</v>
@@ -5255,7 +4891,7 @@
         <v>2.7299999999999898</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>13</v>
@@ -5268,7 +4904,7 @@
         <v>2.7000000000000171</v>
       </c>
       <c r="U15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s">
         <v>11</v>
@@ -5281,7 +4917,7 @@
         <v>5.1700000000000159</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s">
         <v>3</v>
@@ -5294,7 +4930,7 @@
         <v>6.4699999999999989</v>
       </c>
       <c r="AC15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>13</v>
@@ -5307,7 +4943,7 @@
         <v>3.1399999999999864</v>
       </c>
       <c r="AG15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s">
         <v>11</v>
@@ -5320,7 +4956,7 @@
         <v>4.5</v>
       </c>
       <c r="AK15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL15" t="s">
         <v>11</v>
@@ -5333,7 +4969,7 @@
         <v>10.61999999999999</v>
       </c>
       <c r="AO15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>13</v>
@@ -5346,7 +4982,7 @@
         <v>3.1500000000000057</v>
       </c>
       <c r="AS15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT15" t="s">
         <v>11</v>
@@ -5359,7 +4995,7 @@
         <v>20.519999999999982</v>
       </c>
       <c r="AW15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>15</v>
@@ -5372,7 +5008,7 @@
         <v>2.3000000000000114</v>
       </c>
       <c r="BA15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB15" t="s">
         <v>11</v>
@@ -5385,7 +5021,7 @@
         <v>3.75</v>
       </c>
       <c r="BE15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF15" s="1" t="s">
         <v>13</v>
@@ -5398,7 +5034,7 @@
         <v>2.9000000000000057</v>
       </c>
       <c r="BI15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ15" s="1" t="s">
         <v>13</v>
@@ -5411,7 +5047,7 @@
         <v>2.6999999999999886</v>
       </c>
       <c r="BM15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN15" t="s">
         <v>3</v>
@@ -5424,7 +5060,7 @@
         <v>5.3499999999999943</v>
       </c>
       <c r="BQ15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR15" t="s">
         <v>3</v>
@@ -5437,7 +5073,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="BU15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV15" t="s">
         <v>27</v>
@@ -5450,7 +5086,7 @@
         <v>0.39999999999999147</v>
       </c>
       <c r="BY15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ15" t="s">
         <v>3</v>
@@ -5463,7 +5099,7 @@
         <v>5.3499999999999943</v>
       </c>
       <c r="CC15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD15" t="s">
         <v>5</v>
@@ -5476,7 +5112,7 @@
         <v>11.02000000000001</v>
       </c>
       <c r="CG15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH15" t="s">
         <v>3</v>
@@ -5489,7 +5125,7 @@
         <v>6</v>
       </c>
       <c r="CK15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL15" t="s">
         <v>11</v>
@@ -5501,34 +5137,8 @@
         <f t="shared" si="22"/>
         <v>3.3000000000000114</v>
       </c>
-      <c r="CO15" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ15">
-        <v>145.76</v>
-      </c>
-      <c r="CR15">
-        <f t="shared" si="23"/>
-        <v>7.1499999999999773</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU15">
-        <v>152.59</v>
-      </c>
-      <c r="CV15">
-        <f t="shared" si="24"/>
-        <v>2.7299999999999898</v>
-      </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5569,7 +5179,7 @@
         <v>11.340000000000003</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
         <v>11</v>
@@ -5582,7 +5192,7 @@
         <v>4.7299999999999898</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
         <v>11</v>
@@ -5595,7 +5205,7 @@
         <v>17.259999999999991</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V16" t="s">
         <v>27</v>
@@ -5608,7 +5218,7 @@
         <v>4.7699999999999818</v>
       </c>
       <c r="Y16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s">
         <v>11</v>
@@ -5621,7 +5231,7 @@
         <v>8.1699999999999875</v>
       </c>
       <c r="AC16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD16" t="s">
         <v>3</v>
@@ -5634,7 +5244,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="AG16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s">
         <v>9</v>
@@ -5647,7 +5257,7 @@
         <v>6.6000000000000085</v>
       </c>
       <c r="AK16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL16" t="s">
         <v>3</v>
@@ -5660,7 +5270,7 @@
         <v>12.959999999999994</v>
       </c>
       <c r="AO16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP16" t="s">
         <v>11</v>
@@ -5673,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="AS16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT16" t="s">
         <v>18</v>
@@ -5686,7 +5296,7 @@
         <v>0.20000000000001705</v>
       </c>
       <c r="AW16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX16" t="s">
         <v>11</v>
@@ -5699,7 +5309,7 @@
         <v>14.949999999999989</v>
       </c>
       <c r="BA16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB16" t="s">
         <v>9</v>
@@ -5712,7 +5322,7 @@
         <v>1.2000000000000171</v>
       </c>
       <c r="BE16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF16" t="s">
         <v>11</v>
@@ -5725,7 +5335,7 @@
         <v>4.0999999999999943</v>
       </c>
       <c r="BI16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ16" t="s">
         <v>11</v>
@@ -5738,7 +5348,7 @@
         <v>4.3000000000000114</v>
       </c>
       <c r="BM16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN16" t="s">
         <v>11</v>
@@ -5751,7 +5361,7 @@
         <v>18.569999999999993</v>
       </c>
       <c r="BQ16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR16" t="s">
         <v>27</v>
@@ -5764,10 +5374,10 @@
         <v>4.9200000000000159</v>
       </c>
       <c r="BU16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BW16">
         <v>116.31</v>
@@ -5777,7 +5387,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="BY16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ16" t="s">
         <v>11</v>
@@ -5790,7 +5400,7 @@
         <v>10.150000000000006</v>
       </c>
       <c r="CC16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD16" t="s">
         <v>7</v>
@@ -5803,7 +5413,7 @@
         <v>5.0999999999999943</v>
       </c>
       <c r="CG16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH16" t="s">
         <v>9</v>
@@ -5816,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="CK16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL16" t="s">
         <v>9</v>
@@ -5828,34 +5438,8 @@
         <f t="shared" si="22"/>
         <v>5.9000000000000057</v>
       </c>
-      <c r="CO16" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ16">
-        <v>148.53</v>
-      </c>
-      <c r="CR16">
-        <f t="shared" si="23"/>
-        <v>2.7700000000000102</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU16">
-        <v>157.32</v>
-      </c>
-      <c r="CV16">
-        <f t="shared" si="24"/>
-        <v>4.7299999999999898</v>
-      </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5896,7 +5480,7 @@
         <v>4.9699999999999989</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
         <v>3</v>
@@ -5909,7 +5493,7 @@
         <v>8.5300000000000011</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
         <v>3</v>
@@ -5922,10 +5506,10 @@
         <v>6.3000000000000114</v>
       </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W17">
         <v>140.43</v>
@@ -5935,7 +5519,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="Y17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s">
         <v>3</v>
@@ -5948,7 +5532,7 @@
         <v>6.2199999999999989</v>
       </c>
       <c r="AC17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD17" t="s">
         <v>11</v>
@@ -5961,7 +5545,7 @@
         <v>6.6999999999999886</v>
       </c>
       <c r="AG17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH17" t="s">
         <v>11</v>
@@ -5974,7 +5558,7 @@
         <v>4.6999999999999886</v>
       </c>
       <c r="AK17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL17" t="s">
         <v>11</v>
@@ -5987,7 +5571,7 @@
         <v>1.5</v>
       </c>
       <c r="AO17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP17" t="s">
         <v>3</v>
@@ -6000,7 +5584,7 @@
         <v>5.7700000000000102</v>
       </c>
       <c r="AS17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT17" t="s">
         <v>27</v>
@@ -6013,7 +5597,7 @@
         <v>0.79999999999998295</v>
       </c>
       <c r="AW17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX17" t="s">
         <v>3</v>
@@ -6026,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="BA17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB17" t="s">
         <v>18</v>
@@ -6039,7 +5623,7 @@
         <v>0.29999999999998295</v>
       </c>
       <c r="BE17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF17" t="s">
         <v>18</v>
@@ -6052,7 +5636,7 @@
         <v>0.20000000000001705</v>
       </c>
       <c r="BI17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ17" t="s">
         <v>18</v>
@@ -6065,7 +5649,7 @@
         <v>0.19999999999998863</v>
       </c>
       <c r="BM17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN17" t="s">
         <v>3</v>
@@ -6078,10 +5662,10 @@
         <v>8.8000000000000114</v>
       </c>
       <c r="BQ17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BS17">
         <v>156.26</v>
@@ -6091,7 +5675,7 @@
         <v>2.8599999999999852</v>
       </c>
       <c r="BU17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV17" s="1" t="s">
         <v>13</v>
@@ -6104,7 +5688,7 @@
         <v>2.8999999999999915</v>
       </c>
       <c r="BY17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ17" t="s">
         <v>3</v>
@@ -6117,10 +5701,10 @@
         <v>2.8000000000000114</v>
       </c>
       <c r="CC17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="CE17">
         <v>120.92</v>
@@ -6130,7 +5714,7 @@
         <v>12.310000000000002</v>
       </c>
       <c r="CG17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH17" t="s">
         <v>3</v>
@@ -6143,7 +5727,7 @@
         <v>2.1999999999999886</v>
       </c>
       <c r="CK17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL17" t="s">
         <v>11</v>
@@ -6155,34 +5739,8 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999943</v>
       </c>
-      <c r="CO17" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ17">
-        <v>153.71</v>
-      </c>
-      <c r="CR17">
-        <f t="shared" si="23"/>
-        <v>5.1800000000000068</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU17">
-        <v>165.85</v>
-      </c>
-      <c r="CV17">
-        <f t="shared" si="24"/>
-        <v>8.5300000000000011</v>
-      </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6223,7 +5781,7 @@
         <v>11.359999999999985</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N18" t="s">
         <v>11</v>
@@ -6236,7 +5794,7 @@
         <v>7.9699999999999989</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
         <v>11</v>
@@ -6249,7 +5807,7 @@
         <v>8.25</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>13</v>
@@ -6262,7 +5820,7 @@
         <v>3.2999999999999829</v>
       </c>
       <c r="Y18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s">
         <v>11</v>
@@ -6275,7 +5833,7 @@
         <v>9.3200000000000216</v>
       </c>
       <c r="AC18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD18" t="s">
         <v>3</v>
@@ -6288,7 +5846,7 @@
         <v>12.070000000000022</v>
       </c>
       <c r="AG18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH18" t="s">
         <v>3</v>
@@ -6301,7 +5859,7 @@
         <v>0.80000000000001137</v>
       </c>
       <c r="AK18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL18" t="s">
         <v>3</v>
@@ -6314,7 +5872,7 @@
         <v>1.5300000000000011</v>
       </c>
       <c r="AO18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP18" t="s">
         <v>11</v>
@@ -6327,7 +5885,7 @@
         <v>1.5</v>
       </c>
       <c r="AS18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT18" t="s">
         <v>18</v>
@@ -6340,7 +5898,7 @@
         <v>0.20000000000001705</v>
       </c>
       <c r="AW18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX18" t="s">
         <v>11</v>
@@ -6353,7 +5911,7 @@
         <v>14.550000000000011</v>
       </c>
       <c r="BA18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB18" t="s">
         <v>11</v>
@@ -6366,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="BE18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF18" t="s">
         <v>3</v>
@@ -6379,7 +5937,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="BI18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ18" t="s">
         <v>11</v>
@@ -6392,7 +5950,7 @@
         <v>8.0999999999999943</v>
       </c>
       <c r="BM18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN18" t="s">
         <v>5</v>
@@ -6405,7 +5963,7 @@
         <v>5.8799999999999955</v>
       </c>
       <c r="BQ18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR18" t="s">
         <v>11</v>
@@ -6418,7 +5976,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="BU18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV18" t="s">
         <v>11</v>
@@ -6431,7 +5989,7 @@
         <v>3.2000000000000028</v>
       </c>
       <c r="BY18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ18" t="s">
         <v>9</v>
@@ -6444,7 +6002,7 @@
         <v>6.0999999999999943</v>
       </c>
       <c r="CC18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD18" t="s">
         <v>11</v>
@@ -6457,7 +6015,7 @@
         <v>14.019999999999996</v>
       </c>
       <c r="CG18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH18" t="s">
         <v>9</v>
@@ -6470,7 +6028,7 @@
         <v>0.95000000000001705</v>
       </c>
       <c r="CK18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL18" t="s">
         <v>9</v>
@@ -6482,34 +6040,8 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="CO18" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ18">
-        <v>162.41</v>
-      </c>
-      <c r="CR18">
-        <f t="shared" si="23"/>
-        <v>8.6999999999999886</v>
-      </c>
-      <c r="CS18" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT18" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU18">
-        <v>173.82</v>
-      </c>
-      <c r="CV18">
-        <f t="shared" si="24"/>
-        <v>7.9699999999999989</v>
-      </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -6550,7 +6082,7 @@
         <v>5.4000000000000057</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
         <v>3</v>
@@ -6563,7 +6095,7 @@
         <v>4.6200000000000045</v>
       </c>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
         <v>3</v>
@@ -6576,7 +6108,7 @@
         <v>11.75</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s">
         <v>11</v>
@@ -6589,7 +6121,7 @@
         <v>1.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s">
         <v>3</v>
@@ -6602,7 +6134,7 @@
         <v>10.179999999999978</v>
       </c>
       <c r="AC19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD19" t="s">
         <v>5</v>
@@ -6615,10 +6147,10 @@
         <v>3.4199999999999875</v>
       </c>
       <c r="AG19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI19">
         <v>138</v>
@@ -6628,7 +6160,7 @@
         <v>0.19999999999998863</v>
       </c>
       <c r="AK19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL19" t="s">
         <v>11</v>
@@ -6641,7 +6173,7 @@
         <v>0.5</v>
       </c>
       <c r="AO19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP19" t="s">
         <v>3</v>
@@ -6654,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT19" t="s">
         <v>4</v>
@@ -6667,7 +6199,7 @@
         <v>11.530000000000001</v>
       </c>
       <c r="AW19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX19" t="s">
         <v>3</v>
@@ -6680,7 +6212,7 @@
         <v>3.7999999999999829</v>
       </c>
       <c r="BA19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB19" t="s">
         <v>9</v>
@@ -6693,7 +6225,7 @@
         <v>3.6000000000000227</v>
       </c>
       <c r="BE19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF19" t="s">
         <v>11</v>
@@ -6706,7 +6238,7 @@
         <v>16.799999999999983</v>
       </c>
       <c r="BI19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ19" t="s">
         <v>3</v>
@@ -6719,7 +6251,7 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="BM19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN19" t="s">
         <v>11</v>
@@ -6732,7 +6264,7 @@
         <v>7.4399999999999977</v>
       </c>
       <c r="BQ19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR19" t="s">
         <v>3</v>
@@ -6745,7 +6277,7 @@
         <v>1.7999999999999829</v>
       </c>
       <c r="BU19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV19" t="s">
         <v>9</v>
@@ -6758,7 +6290,7 @@
         <v>4.5400000000000063</v>
       </c>
       <c r="BY19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ19" t="s">
         <v>11</v>
@@ -6771,7 +6303,7 @@
         <v>4.3000000000000114</v>
       </c>
       <c r="CC19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD19" t="s">
         <v>3</v>
@@ -6784,7 +6316,7 @@
         <v>11.860000000000014</v>
       </c>
       <c r="CG19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH19" s="1" t="s">
         <v>13</v>
@@ -6797,7 +6329,7 @@
         <v>2.6399999999999864</v>
       </c>
       <c r="CK19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL19" t="s">
         <v>3</v>
@@ -6809,34 +6341,8 @@
         <f t="shared" si="22"/>
         <v>3.6999999999999886</v>
       </c>
-      <c r="CO19" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP19" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ19">
-        <v>166.93</v>
-      </c>
-      <c r="CR19">
-        <f t="shared" si="23"/>
-        <v>4.5200000000000102</v>
-      </c>
-      <c r="CS19" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU19">
-        <v>178.44</v>
-      </c>
-      <c r="CV19">
-        <f t="shared" si="24"/>
-        <v>4.6200000000000045</v>
-      </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6877,7 +6383,7 @@
         <v>3.8899999999999864</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
@@ -6890,7 +6396,7 @@
         <v>16.199999999999989</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>15</v>
@@ -6903,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>27</v>
@@ -6916,7 +6422,7 @@
         <v>4.7400000000000091</v>
       </c>
       <c r="Y20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s">
         <v>27</v>
@@ -6929,7 +6435,7 @@
         <v>0.45000000000001705</v>
       </c>
       <c r="AC20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD20" t="s">
         <v>3</v>
@@ -6942,7 +6448,7 @@
         <v>10.240000000000009</v>
       </c>
       <c r="AG20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH20" s="1" t="s">
         <v>13</v>
@@ -6955,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL20" t="s">
         <v>3</v>
@@ -6968,7 +6474,7 @@
         <v>0.29000000000002046</v>
       </c>
       <c r="AO20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP20" t="s">
         <v>27</v>
@@ -6981,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AU20">
         <v>174.67</v>
@@ -6994,7 +6500,7 @@
         <v>0.64999999999997726</v>
       </c>
       <c r="AW20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX20" t="s">
         <v>5</v>
@@ -7007,7 +6513,7 @@
         <v>24.189999999999998</v>
       </c>
       <c r="BA20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB20" t="s">
         <v>11</v>
@@ -7020,10 +6526,10 @@
         <v>6.1999999999999886</v>
       </c>
       <c r="BE20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BG20">
         <v>171.9</v>
@@ -7033,7 +6539,7 @@
         <v>20.700000000000017</v>
       </c>
       <c r="BI20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ20" t="s">
         <v>11</v>
@@ -7046,7 +6552,7 @@
         <v>12.200000000000017</v>
       </c>
       <c r="BM20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN20" s="1" t="s">
         <v>16</v>
@@ -7059,7 +6565,7 @@
         <v>5.3999999999999773</v>
       </c>
       <c r="BQ20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR20" t="s">
         <v>11</v>
@@ -7072,7 +6578,7 @@
         <v>2.5</v>
       </c>
       <c r="BU20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV20" t="s">
         <v>27</v>
@@ -7085,7 +6591,7 @@
         <v>2.9999999999999858</v>
       </c>
       <c r="BY20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ20" t="s">
         <v>3</v>
@@ -7098,7 +6604,7 @@
         <v>11.199999999999989</v>
       </c>
       <c r="CC20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD20" s="1" t="s">
         <v>13</v>
@@ -7111,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="CG20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH20" t="s">
         <v>11</v>
@@ -7124,10 +6630,10 @@
         <v>0.90999999999999659</v>
       </c>
       <c r="CK20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="CM20">
         <v>170.5</v>
@@ -7136,34 +6642,8 @@
         <f t="shared" si="22"/>
         <v>0.40000000000000568</v>
       </c>
-      <c r="CO20" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP20" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ20">
-        <v>169.33</v>
-      </c>
-      <c r="CR20">
-        <f t="shared" si="23"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="CS20" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT20" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU20">
-        <v>194.64</v>
-      </c>
-      <c r="CV20">
-        <f t="shared" si="24"/>
-        <v>16.199999999999989</v>
-      </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7204,7 +6684,7 @@
         <v>2.9000000000000057</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>15</v>
@@ -7217,7 +6697,7 @@
         <v>2.1500000000000057</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s">
         <v>27</v>
@@ -7230,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V21" t="s">
         <v>11</v>
@@ -7243,7 +6723,7 @@
         <v>4.8100000000000023</v>
       </c>
       <c r="Y21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>15</v>
@@ -7256,7 +6736,7 @@
         <v>3.1500000000000057</v>
       </c>
       <c r="AC21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>15</v>
@@ -7269,7 +6749,7 @@
         <v>2.710000000000008</v>
       </c>
       <c r="AG21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH21" t="s">
         <v>11</v>
@@ -7282,7 +6762,7 @@
         <v>4.0999999999999943</v>
       </c>
       <c r="AK21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL21" s="1" t="s">
         <v>13</v>
@@ -7295,7 +6775,7 @@
         <v>2.8799999999999955</v>
       </c>
       <c r="AO21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP21" t="s">
         <v>3</v>
@@ -7308,7 +6788,7 @@
         <v>4.7999999999999829</v>
       </c>
       <c r="AS21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>15</v>
@@ -7321,7 +6801,7 @@
         <v>2.3100000000000023</v>
       </c>
       <c r="AW21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX21" t="s">
         <v>3</v>
@@ -7334,7 +6814,7 @@
         <v>2.5</v>
       </c>
       <c r="BA21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB21" t="s">
         <v>3</v>
@@ -7347,7 +6827,7 @@
         <v>2.4000000000000057</v>
       </c>
       <c r="BE21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF21" t="s">
         <v>11</v>
@@ -7360,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="BI21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ21" t="s">
         <v>3</v>
@@ -7373,7 +6853,7 @@
         <v>18.5</v>
       </c>
       <c r="BM21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN21" t="s">
         <v>11</v>
@@ -7386,7 +6866,7 @@
         <v>5.0200000000000387</v>
       </c>
       <c r="BQ21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR21" t="s">
         <v>27</v>
@@ -7399,7 +6879,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="BU21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV21" t="s">
         <v>11</v>
@@ -7412,7 +6892,7 @@
         <v>1.5</v>
       </c>
       <c r="BY21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ21" t="s">
         <v>5</v>
@@ -7425,7 +6905,7 @@
         <v>2.8000000000000114</v>
       </c>
       <c r="CC21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD21" t="s">
         <v>11</v>
@@ -7438,7 +6918,7 @@
         <v>3.3899999999999864</v>
       </c>
       <c r="CG21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH21" t="s">
         <v>3</v>
@@ -7451,7 +6931,7 @@
         <v>4.4000000000000057</v>
       </c>
       <c r="CK21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL21" t="s">
         <v>11</v>
@@ -7463,34 +6943,8 @@
         <f t="shared" si="22"/>
         <v>15.5</v>
       </c>
-      <c r="CO21" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP21" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ21">
-        <v>172.61</v>
-      </c>
-      <c r="CR21">
-        <f t="shared" si="23"/>
-        <v>3.2800000000000011</v>
-      </c>
-      <c r="CS21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CU21">
-        <v>196.79</v>
-      </c>
-      <c r="CV21">
-        <f t="shared" si="24"/>
-        <v>2.1500000000000057</v>
-      </c>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7531,7 +6985,7 @@
         <v>3.4000000000000057</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N22" t="s">
         <v>11</v>
@@ -7544,7 +6998,7 @@
         <v>1.0999999999999943</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
         <v>3</v>
@@ -7557,7 +7011,7 @@
         <v>9.9000000000000057</v>
       </c>
       <c r="U22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V22" t="s">
         <v>3</v>
@@ -7570,7 +7024,7 @@
         <v>6.6999999999999886</v>
       </c>
       <c r="Y22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s">
         <v>11</v>
@@ -7583,7 +7037,7 @@
         <v>15.139999999999986</v>
       </c>
       <c r="AC22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD22" t="s">
         <v>11</v>
@@ -7596,7 +7050,7 @@
         <v>4.9399999999999977</v>
       </c>
       <c r="AG22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s">
         <v>18</v>
@@ -7609,7 +7063,7 @@
         <v>0.20000000000001705</v>
       </c>
       <c r="AK22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL22" t="s">
         <v>11</v>
@@ -7622,7 +7076,7 @@
         <v>3.0499999999999829</v>
       </c>
       <c r="AO22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
         <v>11</v>
@@ -7635,7 +7089,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="AS22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT22" t="s">
         <v>11</v>
@@ -7648,7 +7102,7 @@
         <v>9.4800000000000182</v>
       </c>
       <c r="AW22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX22" s="1" t="s">
         <v>16</v>
@@ -7661,7 +7115,7 @@
         <v>5.2000000000000171</v>
       </c>
       <c r="BA22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB22" t="s">
         <v>9</v>
@@ -7674,7 +7128,7 @@
         <v>11.5</v>
       </c>
       <c r="BE22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF22" s="1" t="s">
         <v>15</v>
@@ -7687,7 +7141,7 @@
         <v>2.2999999999999829</v>
       </c>
       <c r="BI22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ22" t="s">
         <v>11</v>
@@ -7700,7 +7154,7 @@
         <v>1.1999999999999886</v>
       </c>
       <c r="BM22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN22" s="1" t="s">
         <v>17</v>
@@ -7713,7 +7167,7 @@
         <v>1.8000000000000114</v>
       </c>
       <c r="BQ22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR22" t="s">
         <v>11</v>
@@ -7726,7 +7180,7 @@
         <v>1.6200000000000045</v>
       </c>
       <c r="BU22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV22" t="s">
         <v>9</v>
@@ -7739,7 +7193,7 @@
         <v>4.5</v>
       </c>
       <c r="BY22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ22" s="1" t="s">
         <v>15</v>
@@ -7752,7 +7206,7 @@
         <v>2</v>
       </c>
       <c r="CC22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD22" t="s">
         <v>3</v>
@@ -7765,7 +7219,7 @@
         <v>2.1999999999999886</v>
       </c>
       <c r="CG22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH22" t="s">
         <v>11</v>
@@ -7778,7 +7232,7 @@
         <v>17.599999999999994</v>
       </c>
       <c r="CK22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL22" s="1" t="s">
         <v>15</v>
@@ -7790,34 +7244,8 @@
         <f t="shared" si="22"/>
         <v>2.1999999999999886</v>
       </c>
-      <c r="CO22" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ22">
-        <v>177.33</v>
-      </c>
-      <c r="CR22">
-        <f t="shared" si="23"/>
-        <v>4.7199999999999989</v>
-      </c>
-      <c r="CS22" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT22" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU22">
-        <v>197.89</v>
-      </c>
-      <c r="CV22">
-        <f t="shared" si="24"/>
-        <v>1.0999999999999943</v>
-      </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -7858,7 +7286,7 @@
         <v>16.849999999999994</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N23" t="s">
         <v>3</v>
@@ -7871,7 +7299,7 @@
         <v>8.8800000000000239</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
         <v>11</v>
@@ -7884,7 +7312,7 @@
         <v>7.089999999999975</v>
       </c>
       <c r="U23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
@@ -7897,7 +7325,7 @@
         <v>2.2400000000000091</v>
       </c>
       <c r="Y23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>29</v>
@@ -7910,7 +7338,7 @@
         <v>1.9499999999999886</v>
       </c>
       <c r="AC23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD23" t="s">
         <v>3</v>
@@ -7923,7 +7351,7 @@
         <v>4.7199999999999989</v>
       </c>
       <c r="AG23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s">
         <v>3</v>
@@ -7936,7 +7364,7 @@
         <v>2.1999999999999886</v>
       </c>
       <c r="AK23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL23" t="s">
         <v>3</v>
@@ -7949,7 +7377,7 @@
         <v>0.85000000000002274</v>
       </c>
       <c r="AO23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP23" t="s">
         <v>3</v>
@@ -7962,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT23" t="s">
         <v>3</v>
@@ -7975,7 +7403,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="AW23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX23" t="s">
         <v>11</v>
@@ -7988,7 +7416,7 @@
         <v>6.2800000000000011</v>
       </c>
       <c r="BA23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB23" t="s">
         <v>3</v>
@@ -8001,7 +7429,7 @@
         <v>3.1999999999999886</v>
       </c>
       <c r="BE23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF23" t="s">
         <v>11</v>
@@ -8014,7 +7442,7 @@
         <v>16.900000000000006</v>
       </c>
       <c r="BI23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ23" s="1" t="s">
         <v>15</v>
@@ -8027,7 +7455,7 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="BM23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN23" t="s">
         <v>11</v>
@@ -8040,7 +7468,7 @@
         <v>1.8999999999999773</v>
       </c>
       <c r="BQ23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR23" t="s">
         <v>27</v>
@@ -8053,7 +7481,7 @@
         <v>0.5</v>
       </c>
       <c r="BU23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV23" t="s">
         <v>11</v>
@@ -8066,7 +7494,7 @@
         <v>4.5</v>
       </c>
       <c r="BY23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ23" t="s">
         <v>9</v>
@@ -8079,7 +7507,7 @@
         <v>2.8999999999999773</v>
       </c>
       <c r="CC23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD23" t="s">
         <v>11</v>
@@ -8092,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="CG23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH23" t="s">
         <v>3</v>
@@ -8105,7 +7533,7 @@
         <v>3.8000000000000114</v>
       </c>
       <c r="CK23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL23" t="s">
         <v>9</v>
@@ -8117,34 +7545,8 @@
         <f t="shared" si="22"/>
         <v>5.7000000000000171</v>
       </c>
-      <c r="CO23" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP23" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ23">
-        <v>179.71</v>
-      </c>
-      <c r="CR23">
-        <f t="shared" si="23"/>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="CS23" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU23">
-        <v>206.77</v>
-      </c>
-      <c r="CV23">
-        <f t="shared" si="24"/>
-        <v>8.8800000000000239</v>
-      </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -8185,7 +7587,7 @@
         <v>1.5</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N24" t="s">
         <v>11</v>
@@ -8198,7 +7600,7 @@
         <v>5.8100000000000023</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
         <v>3</v>
@@ -8211,7 +7613,7 @@
         <v>3.460000000000008</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V24" t="s">
         <v>11</v>
@@ -8224,7 +7626,7 @@
         <v>8.9300000000000068</v>
       </c>
       <c r="Y24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s">
         <v>27</v>
@@ -8237,7 +7639,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="AC24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD24" t="s">
         <v>11</v>
@@ -8250,7 +7652,7 @@
         <v>4.5799999999999841</v>
       </c>
       <c r="AG24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s">
         <v>27</v>
@@ -8263,7 +7665,7 @@
         <v>2.4000000000000057</v>
       </c>
       <c r="AK24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL24" t="s">
         <v>11</v>
@@ -8276,7 +7678,7 @@
         <v>7.8299999999999841</v>
       </c>
       <c r="AO24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP24" t="s">
         <v>11</v>
@@ -8289,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="AS24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT24" t="s">
         <v>18</v>
@@ -8302,7 +7704,7 @@
         <v>0.19999999999998863</v>
       </c>
       <c r="AW24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX24" s="1" t="s">
         <v>17</v>
@@ -8315,7 +7717,7 @@
         <v>1.8000000000000114</v>
       </c>
       <c r="BA24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB24" t="s">
         <v>11</v>
@@ -8328,7 +7730,7 @@
         <v>2.9000000000000057</v>
       </c>
       <c r="BE24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF24" t="s">
         <v>3</v>
@@ -8341,7 +7743,7 @@
         <v>4.8000000000000114</v>
       </c>
       <c r="BI24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ24" t="s">
         <v>11</v>
@@ -8354,7 +7756,7 @@
         <v>11.700000000000017</v>
       </c>
       <c r="BM24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN24" t="s">
         <v>4</v>
@@ -8367,10 +7769,10 @@
         <v>8.7599999999999909</v>
       </c>
       <c r="BQ24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BS24">
         <v>165.68</v>
@@ -8380,7 +7782,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="BU24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV24" t="s">
         <v>27</v>
@@ -8393,7 +7795,7 @@
         <v>1.8000000000000114</v>
       </c>
       <c r="BY24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ24" t="s">
         <v>11</v>
@@ -8406,7 +7808,7 @@
         <v>12.600000000000023</v>
       </c>
       <c r="CC24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD24" t="s">
         <v>3</v>
@@ -8419,7 +7821,7 @@
         <v>3.4000000000000057</v>
       </c>
       <c r="CG24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH24" t="s">
         <v>11</v>
@@ -8432,7 +7834,7 @@
         <v>7.0999999999999943</v>
       </c>
       <c r="CK24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL24" t="s">
         <v>3</v>
@@ -8444,34 +7846,8 @@
         <f t="shared" si="22"/>
         <v>6.5999999999999943</v>
       </c>
-      <c r="CO24" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ24">
-        <v>192.08</v>
-      </c>
-      <c r="CR24">
-        <f t="shared" si="23"/>
-        <v>12.370000000000005</v>
-      </c>
-      <c r="CS24" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT24" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU24">
-        <v>212.58</v>
-      </c>
-      <c r="CV24">
-        <f t="shared" si="24"/>
-        <v>5.8100000000000023</v>
-      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -8512,7 +7888,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N25" t="s">
         <v>5</v>
@@ -8525,7 +7901,7 @@
         <v>9.9499999999999886</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
         <v>11</v>
@@ -8538,7 +7914,7 @@
         <v>16.300000000000011</v>
       </c>
       <c r="U25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V25" t="s">
         <v>9</v>
@@ -8551,7 +7927,7 @@
         <v>8.9399999999999977</v>
       </c>
       <c r="Y25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s">
         <v>11</v>
@@ -8564,7 +7940,7 @@
         <v>14.969999999999999</v>
       </c>
       <c r="AC25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD25" t="s">
         <v>5</v>
@@ -8577,7 +7953,7 @@
         <v>5.039999999999992</v>
       </c>
       <c r="AG25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s">
         <v>11</v>
@@ -8590,7 +7966,7 @@
         <v>4.6999999999999886</v>
       </c>
       <c r="AK25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL25" t="s">
         <v>3</v>
@@ -8603,10 +7979,10 @@
         <v>3.6100000000000136</v>
       </c>
       <c r="AO25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AQ25">
         <v>157.69</v>
@@ -8616,7 +7992,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT25" t="s">
         <v>11</v>
@@ -8629,7 +8005,7 @@
         <v>18.960000000000008</v>
       </c>
       <c r="AW25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX25" t="s">
         <v>11</v>
@@ -8642,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="BA25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB25" t="s">
         <v>3</v>
@@ -8655,7 +8031,7 @@
         <v>2.9000000000000057</v>
       </c>
       <c r="BE25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF25" t="s">
         <v>5</v>
@@ -8668,7 +8044,7 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="BI25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ25" t="s">
         <v>3</v>
@@ -8681,7 +8057,7 @@
         <v>0.79999999999998295</v>
       </c>
       <c r="BQ25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR25" t="s">
         <v>11</v>
@@ -8694,7 +8070,7 @@
         <v>7.0999999999999943</v>
       </c>
       <c r="BU25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV25" t="s">
         <v>11</v>
@@ -8707,7 +8083,7 @@
         <v>11.569999999999993</v>
       </c>
       <c r="BY25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ25" t="s">
         <v>3</v>
@@ -8720,7 +8096,7 @@
         <v>1.6999999999999886</v>
       </c>
       <c r="CC25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD25" t="s">
         <v>11</v>
@@ -8733,7 +8109,7 @@
         <v>9.4200000000000159</v>
       </c>
       <c r="CG25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH25" t="s">
         <v>3</v>
@@ -8746,7 +8122,7 @@
         <v>10.400000000000006</v>
       </c>
       <c r="CK25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL25" t="s">
         <v>11</v>
@@ -8758,34 +8134,8 @@
         <f t="shared" si="22"/>
         <v>2.6999999999999886</v>
       </c>
-      <c r="CO25" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CQ25">
-        <v>194.23</v>
-      </c>
-      <c r="CR25">
-        <f t="shared" si="23"/>
-        <v>2.1499999999999773</v>
-      </c>
-      <c r="CS25" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT25" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU25">
-        <v>222.53</v>
-      </c>
-      <c r="CV25">
-        <f t="shared" si="24"/>
-        <v>9.9499999999999886</v>
-      </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -8826,7 +8176,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N26" t="s">
         <v>11</v>
@@ -8839,7 +8189,7 @@
         <v>20.03</v>
       </c>
       <c r="Q26" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
         <v>3</v>
@@ -8852,7 +8202,7 @@
         <v>20.499999999999972</v>
       </c>
       <c r="U26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V26" t="s">
         <v>27</v>
@@ -8865,7 +8215,7 @@
         <v>1.2400000000000091</v>
       </c>
       <c r="Y26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s">
         <v>3</v>
@@ -8878,7 +8228,7 @@
         <v>4.3799999999999955</v>
       </c>
       <c r="AC26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD26" t="s">
         <v>11</v>
@@ -8891,7 +8241,7 @@
         <v>13.810000000000002</v>
       </c>
       <c r="AG26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s">
         <v>27</v>
@@ -8904,7 +8254,7 @@
         <v>3.0999999999999943</v>
       </c>
       <c r="AK26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL26" t="s">
         <v>5</v>
@@ -8917,7 +8267,7 @@
         <v>2.25</v>
       </c>
       <c r="AO26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP26" t="s">
         <v>11</v>
@@ -8930,7 +8280,7 @@
         <v>1.8000000000000114</v>
       </c>
       <c r="AS26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT26" t="s">
         <v>27</v>
@@ -8943,7 +8293,7 @@
         <v>2.1999999999999886</v>
       </c>
       <c r="AW26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX26" t="s">
         <v>5</v>
@@ -8956,7 +8306,7 @@
         <v>8.5399999999999636</v>
       </c>
       <c r="BA26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB26" t="s">
         <v>11</v>
@@ -8969,7 +8319,7 @@
         <v>5.2999999999999829</v>
       </c>
       <c r="BE26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF26" t="s">
         <v>3</v>
@@ -8982,7 +8332,7 @@
         <v>0.5</v>
       </c>
       <c r="BI26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ26" t="s">
         <v>18</v>
@@ -8995,7 +8345,7 @@
         <v>0.25</v>
       </c>
       <c r="BQ26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR26" t="s">
         <v>27</v>
@@ -9008,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="BU26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV26" t="s">
         <v>3</v>
@@ -9021,7 +8371,7 @@
         <v>5.2000000000000171</v>
       </c>
       <c r="BY26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ26" t="s">
         <v>11</v>
@@ -9034,7 +8384,7 @@
         <v>3.1999999999999886</v>
       </c>
       <c r="CC26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD26" t="s">
         <v>3</v>
@@ -9047,7 +8397,7 @@
         <v>3.1999999999999886</v>
       </c>
       <c r="CG26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH26" t="s">
         <v>9</v>
@@ -9060,7 +8410,7 @@
         <v>2.6299999999999955</v>
       </c>
       <c r="CK26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL26" t="s">
         <v>3</v>
@@ -9072,34 +8422,8 @@
         <f t="shared" si="22"/>
         <v>3.5</v>
       </c>
-      <c r="CO26" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP26" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ26">
-        <v>196.43</v>
-      </c>
-      <c r="CR26">
-        <f t="shared" si="23"/>
-        <v>2.2000000000000171</v>
-      </c>
-      <c r="CS26" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT26" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU26">
-        <v>242.56</v>
-      </c>
-      <c r="CV26">
-        <f t="shared" si="24"/>
-        <v>20.03</v>
-      </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -9140,7 +8464,7 @@
         <v>5.8400000000000034</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N27" t="s">
         <v>3</v>
@@ -9153,7 +8477,7 @@
         <v>10.5</v>
       </c>
       <c r="Q27" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
         <v>11</v>
@@ -9166,7 +8490,7 @@
         <v>2.9900000000000091</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V27" t="s">
         <v>9</v>
@@ -9179,7 +8503,7 @@
         <v>1.8699999999999761</v>
       </c>
       <c r="Y27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s">
         <v>5</v>
@@ -9192,7 +8516,7 @@
         <v>15.510000000000019</v>
       </c>
       <c r="AC27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD27" t="s">
         <v>3</v>
@@ -9205,7 +8529,7 @@
         <v>8.4200000000000159</v>
       </c>
       <c r="AG27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s">
         <v>11</v>
@@ -9218,7 +8542,7 @@
         <v>2.5</v>
       </c>
       <c r="AK27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL27" t="s">
         <v>11</v>
@@ -9231,7 +8555,7 @@
         <v>5.0699999999999932</v>
       </c>
       <c r="AO27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP27" t="s">
         <v>3</v>
@@ -9244,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT27" t="s">
         <v>11</v>
@@ -9257,7 +8581,7 @@
         <v>7.3300000000000125</v>
       </c>
       <c r="BA27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB27" s="1" t="s">
         <v>15</v>
@@ -9270,7 +8594,7 @@
         <v>2.4000000000000057</v>
       </c>
       <c r="BE27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF27" t="s">
         <v>9</v>
@@ -9283,7 +8607,7 @@
         <v>5.4000000000000057</v>
       </c>
       <c r="BI27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ27" t="s">
         <v>11</v>
@@ -9296,7 +8620,7 @@
         <v>0.75</v>
       </c>
       <c r="BQ27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR27" t="s">
         <v>11</v>
@@ -9309,7 +8633,7 @@
         <v>2.5200000000000102</v>
       </c>
       <c r="BU27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV27" t="s">
         <v>7</v>
@@ -9322,7 +8646,7 @@
         <v>5</v>
       </c>
       <c r="BY27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ27" t="s">
         <v>3</v>
@@ -9335,7 +8659,7 @@
         <v>1.4000000000000057</v>
       </c>
       <c r="CC27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD27" t="s">
         <v>5</v>
@@ -9348,7 +8672,7 @@
         <v>23.830000000000013</v>
       </c>
       <c r="CG27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH27" s="1" t="s">
         <v>15</v>
@@ -9361,7 +8685,7 @@
         <v>2.0800000000000125</v>
       </c>
       <c r="CK27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL27" t="s">
         <v>11</v>
@@ -9373,34 +8697,8 @@
         <f t="shared" si="22"/>
         <v>16.600000000000023</v>
       </c>
-      <c r="CO27" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ27">
-        <v>206.11</v>
-      </c>
-      <c r="CR27">
-        <f t="shared" si="23"/>
-        <v>9.6800000000000068</v>
-      </c>
-      <c r="CS27" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU27">
-        <v>253.06</v>
-      </c>
-      <c r="CV27">
-        <f t="shared" si="24"/>
-        <v>10.5</v>
-      </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -9441,7 +8739,7 @@
         <v>8.9499999999999886</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
@@ -9454,7 +8752,7 @@
         <v>5.2300000000000182</v>
       </c>
       <c r="Q28" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>16</v>
@@ -9467,7 +8765,7 @@
         <v>5.8100000000000023</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>15</v>
@@ -9480,7 +8778,7 @@
         <v>3.1200000000000045</v>
       </c>
       <c r="Y28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>16</v>
@@ -9493,7 +8791,7 @@
         <v>4.7999999999999829</v>
       </c>
       <c r="AC28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD28" t="s">
         <v>11</v>
@@ -9506,7 +8804,7 @@
         <v>3.25</v>
       </c>
       <c r="AG28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s">
         <v>3</v>
@@ -9519,7 +8817,7 @@
         <v>11</v>
       </c>
       <c r="AK28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL28" t="s">
         <v>3</v>
@@ -9532,7 +8830,7 @@
         <v>5.6399999999999864</v>
       </c>
       <c r="AO28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP28" t="s">
         <v>11</v>
@@ -9545,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT28" t="s">
         <v>3</v>
@@ -9558,7 +8856,7 @@
         <v>18.47999999999999</v>
       </c>
       <c r="BA28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB28" t="s">
         <v>9</v>
@@ -9571,7 +8869,7 @@
         <v>4.5</v>
       </c>
       <c r="BE28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF28" t="s">
         <v>3</v>
@@ -9584,7 +8882,7 @@
         <v>6.1999999999999886</v>
       </c>
       <c r="BI28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ28" t="s">
         <v>3</v>
@@ -9597,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="BQ28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR28" t="s">
         <v>3</v>
@@ -9610,7 +8908,7 @@
         <v>1.5</v>
       </c>
       <c r="BU28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV28" t="s">
         <v>27</v>
@@ -9623,7 +8921,7 @@
         <v>0.25999999999999091</v>
       </c>
       <c r="BY28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ28" t="s">
         <v>11</v>
@@ -9636,7 +8934,7 @@
         <v>17</v>
       </c>
       <c r="CC28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD28" s="1" t="s">
         <v>15</v>
@@ -9649,7 +8947,7 @@
         <v>2.4499999999999886</v>
       </c>
       <c r="CG28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH28" t="s">
         <v>27</v>
@@ -9662,7 +8960,7 @@
         <v>8.9999999999974989E-2</v>
       </c>
       <c r="CK28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL28" t="s">
         <v>3</v>
@@ -9674,34 +8972,8 @@
         <f t="shared" si="22"/>
         <v>1.5999999999999943</v>
       </c>
-      <c r="CO28" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP28" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ28">
-        <v>210.11</v>
-      </c>
-      <c r="CR28">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="CS28" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT28" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU28">
-        <v>258.29000000000002</v>
-      </c>
-      <c r="CV28">
-        <f t="shared" si="24"/>
-        <v>5.2300000000000182</v>
-      </c>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -9742,7 +9014,7 @@
         <v>20.810000000000002</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>16</v>
@@ -9755,7 +9027,7 @@
         <v>5.5799999999999841</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s">
         <v>3</v>
@@ -9768,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V29" t="s">
         <v>27</v>
@@ -9781,7 +9053,7 @@
         <v>0.80000000000001137</v>
       </c>
       <c r="Y29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>11</v>
@@ -9794,7 +9066,7 @@
         <v>7.2700000000000387</v>
       </c>
       <c r="AC29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD29" t="s">
         <v>3</v>
@@ -9807,7 +9079,7 @@
         <v>2.5900000000000034</v>
       </c>
       <c r="AG29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s">
         <v>11</v>
@@ -9820,7 +9092,7 @@
         <v>4.8000000000000114</v>
       </c>
       <c r="AK29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL29" t="s">
         <v>7</v>
@@ -9833,7 +9105,7 @@
         <v>1.4800000000000182</v>
       </c>
       <c r="AO29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP29" t="s">
         <v>3</v>
@@ -9846,10 +9118,10 @@
         <v>5.289999999999992</v>
       </c>
       <c r="AS29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU29">
         <v>235.43</v>
@@ -9859,7 +9131,7 @@
         <v>0.20000000000001705</v>
       </c>
       <c r="BA29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB29" t="s">
         <v>11</v>
@@ -9872,7 +9144,7 @@
         <v>7.4000000000000057</v>
       </c>
       <c r="BE29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF29" t="s">
         <v>11</v>
@@ -9885,7 +9157,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="BI29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ29" t="s">
         <v>11</v>
@@ -9898,7 +9170,7 @@
         <v>0.90000000000000568</v>
       </c>
       <c r="BQ29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR29" t="s">
         <v>11</v>
@@ -9911,7 +9183,7 @@
         <v>0.69999999999998863</v>
       </c>
       <c r="BU29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV29" s="1" t="s">
         <v>15</v>
@@ -9924,7 +9196,7 @@
         <v>2.3000000000000114</v>
       </c>
       <c r="BY29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ29" t="s">
         <v>3</v>
@@ -9937,7 +9209,7 @@
         <v>4.2000000000000171</v>
       </c>
       <c r="CC29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD29" t="s">
         <v>11</v>
@@ -9950,7 +9222,7 @@
         <v>3.3100000000000023</v>
       </c>
       <c r="CG29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH29" t="s">
         <v>11</v>
@@ -9963,7 +9235,7 @@
         <v>10.200000000000017</v>
       </c>
       <c r="CK29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL29" t="s">
         <v>11</v>
@@ -9975,34 +9247,8 @@
         <f t="shared" si="22"/>
         <v>5.5999999999999943</v>
       </c>
-      <c r="CO29" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP29" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ29">
-        <v>212.11</v>
-      </c>
-      <c r="CR29">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="CS29" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CU29">
-        <v>263.87</v>
-      </c>
-      <c r="CV29">
-        <f t="shared" si="24"/>
-        <v>5.5799999999999841</v>
-      </c>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -10043,7 +9289,7 @@
         <v>4.3000000000000114</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N30" t="s">
         <v>11</v>
@@ -10056,7 +9302,7 @@
         <v>2.3000000000000114</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
         <v>11</v>
@@ -10069,7 +9315,7 @@
         <v>5.75</v>
       </c>
       <c r="U30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V30" t="s">
         <v>11</v>
@@ -10082,7 +9328,7 @@
         <v>2.5799999999999841</v>
       </c>
       <c r="Y30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>5</v>
@@ -10095,7 +9341,7 @@
         <v>4.8699999999999477</v>
       </c>
       <c r="AC30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD30" t="s">
         <v>11</v>
@@ -10108,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="AG30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH30" t="s">
         <v>3</v>
@@ -10121,7 +9367,7 @@
         <v>6.4000000000000057</v>
       </c>
       <c r="AK30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL30" t="s">
         <v>5</v>
@@ -10134,7 +9380,7 @@
         <v>6.1500000000000057</v>
       </c>
       <c r="AO30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP30" t="s">
         <v>11</v>
@@ -10147,7 +9393,7 @@
         <v>4.5</v>
       </c>
       <c r="AS30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT30" s="1" t="s">
         <v>16</v>
@@ -10160,7 +9406,7 @@
         <v>4.5</v>
       </c>
       <c r="BA30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB30" t="s">
         <v>18</v>
@@ -10173,7 +9419,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="BE30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF30" t="s">
         <v>3</v>
@@ -10186,7 +9432,7 @@
         <v>2.2999999999999829</v>
       </c>
       <c r="BI30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ30" t="s">
         <v>3</v>
@@ -10199,7 +9445,7 @@
         <v>1.5</v>
       </c>
       <c r="BQ30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR30" t="s">
         <v>3</v>
@@ -10212,7 +9458,7 @@
         <v>10</v>
       </c>
       <c r="BU30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV30" t="s">
         <v>27</v>
@@ -10225,7 +9471,7 @@
         <v>0.78000000000000114</v>
       </c>
       <c r="BY30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ30" t="s">
         <v>5</v>
@@ -10238,7 +9484,7 @@
         <v>11.099999999999994</v>
       </c>
       <c r="CC30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD30" t="s">
         <v>3</v>
@@ -10251,7 +9497,7 @@
         <v>11.060000000000002</v>
       </c>
       <c r="CG30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH30" t="s">
         <v>27</v>
@@ -10264,7 +9510,7 @@
         <v>3.1200000000000045</v>
       </c>
       <c r="CK30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL30" t="s">
         <v>11</v>
@@ -10276,34 +9522,8 @@
         <f t="shared" si="22"/>
         <v>7.3000000000000114</v>
       </c>
-      <c r="CO30" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP30" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ30">
-        <v>224.27</v>
-      </c>
-      <c r="CR30">
-        <f t="shared" si="23"/>
-        <v>12.159999999999997</v>
-      </c>
-      <c r="CS30" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT30" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU30">
-        <v>266.17</v>
-      </c>
-      <c r="CV30">
-        <f t="shared" si="24"/>
-        <v>2.3000000000000114</v>
-      </c>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -10344,7 +9564,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N31" t="s">
         <v>3</v>
@@ -10357,7 +9577,7 @@
         <v>3.5299999999999727</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>17</v>
@@ -10370,7 +9590,7 @@
         <v>1.75</v>
       </c>
       <c r="U31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V31" t="s">
         <v>9</v>
@@ -10383,7 +9603,7 @@
         <v>3.9399999999999977</v>
       </c>
       <c r="Y31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s">
         <v>11</v>
@@ -10396,7 +9616,7 @@
         <v>1.160000000000025</v>
       </c>
       <c r="AC31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD31" t="s">
         <v>5</v>
@@ -10409,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AG31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s">
         <v>11</v>
@@ -10422,7 +9642,7 @@
         <v>0.69999999999998863</v>
       </c>
       <c r="AK31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL31" t="s">
         <v>3</v>
@@ -10435,7 +9655,7 @@
         <v>4.4599999999999795</v>
       </c>
       <c r="AO31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP31" t="s">
         <v>27</v>
@@ -10448,10 +9668,10 @@
         <v>0.66999999999998749</v>
       </c>
       <c r="AS31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU31">
         <v>240.53</v>
@@ -10461,7 +9681,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="BA31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB31" t="s">
         <v>9</v>
@@ -10474,7 +9694,7 @@
         <v>5.2999999999999829</v>
       </c>
       <c r="BE31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF31" t="s">
         <v>11</v>
@@ -10487,7 +9707,7 @@
         <v>10</v>
       </c>
       <c r="BI31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ31" t="s">
         <v>9</v>
@@ -10500,7 +9720,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="BQ31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR31" t="s">
         <v>5</v>
@@ -10513,7 +9733,7 @@
         <v>16.860000000000014</v>
       </c>
       <c r="BU31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV31" t="s">
         <v>11</v>
@@ -10526,7 +9746,7 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="BY31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ31" t="s">
         <v>3</v>
@@ -10539,7 +9759,7 @@
         <v>6.5999999999999943</v>
       </c>
       <c r="CC31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD31" t="s">
         <v>5</v>
@@ -10552,7 +9772,7 @@
         <v>8.25</v>
       </c>
       <c r="CG31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH31" t="s">
         <v>18</v>
@@ -10565,7 +9785,7 @@
         <v>0.13999999999998636</v>
       </c>
       <c r="CK31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL31" t="s">
         <v>3</v>
@@ -10577,34 +9797,8 @@
         <f t="shared" si="22"/>
         <v>8.2999999999999829</v>
       </c>
-      <c r="CO31" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP31" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ31">
-        <v>230.23</v>
-      </c>
-      <c r="CR31">
-        <f t="shared" si="23"/>
-        <v>5.9599999999999795</v>
-      </c>
-      <c r="CS31" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT31" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU31">
-        <v>269.7</v>
-      </c>
-      <c r="CV31">
-        <f t="shared" si="24"/>
-        <v>3.5299999999999727</v>
-      </c>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -10645,7 +9839,7 @@
         <v>5.9300000000000068</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N32" t="s">
         <v>11</v>
@@ -10658,7 +9852,7 @@
         <v>1.4900000000000091</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
         <v>12</v>
@@ -10671,7 +9865,7 @@
         <v>9.2300000000000182</v>
       </c>
       <c r="U32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V32" t="s">
         <v>11</v>
@@ -10684,7 +9878,7 @@
         <v>8.9000000000000057</v>
       </c>
       <c r="Y32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>17</v>
@@ -10697,7 +9891,7 @@
         <v>1.3500000000000227</v>
       </c>
       <c r="AC32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD32" t="s">
         <v>3</v>
@@ -10710,7 +9904,7 @@
         <v>2.039999999999992</v>
       </c>
       <c r="AG32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH32" t="s">
         <v>18</v>
@@ -10723,7 +9917,7 @@
         <v>0.25</v>
       </c>
       <c r="AK32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL32" t="s">
         <v>11</v>
@@ -10736,7 +9930,7 @@
         <v>3.3600000000000136</v>
       </c>
       <c r="AO32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>15</v>
@@ -10749,7 +9943,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="AS32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT32" t="s">
         <v>11</v>
@@ -10762,7 +9956,7 @@
         <v>2.5800000000000125</v>
       </c>
       <c r="BA32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB32" t="s">
         <v>3</v>
@@ -10775,7 +9969,7 @@
         <v>1.2000000000000171</v>
       </c>
       <c r="BE32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF32" t="s">
         <v>3</v>
@@ -10788,7 +9982,7 @@
         <v>3.8000000000000114</v>
       </c>
       <c r="BI32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ32" t="s">
         <v>3</v>
@@ -10801,7 +9995,7 @@
         <v>1.7999999999999829</v>
       </c>
       <c r="BQ32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR32" t="s">
         <v>3</v>
@@ -10814,7 +10008,7 @@
         <v>0.19999999999998863</v>
       </c>
       <c r="BU32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV32" t="s">
         <v>27</v>
@@ -10827,7 +10021,7 @@
         <v>7.8599999999999852</v>
       </c>
       <c r="BY32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ32" t="s">
         <v>11</v>
@@ -10840,7 +10034,7 @@
         <v>1.6999999999999886</v>
       </c>
       <c r="CC32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD32" t="s">
         <v>11</v>
@@ -10853,7 +10047,7 @@
         <v>5.6500000000000057</v>
       </c>
       <c r="CG32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH32" t="s">
         <v>9</v>
@@ -10866,7 +10060,7 @@
         <v>0.43999999999999773</v>
       </c>
       <c r="CK32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL32" s="1" t="s">
         <v>16</v>
@@ -10878,34 +10072,8 @@
         <f t="shared" si="22"/>
         <v>4.5999999999999943</v>
       </c>
-      <c r="CO32" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ32">
-        <v>236.51</v>
-      </c>
-      <c r="CR32">
-        <f t="shared" si="23"/>
-        <v>6.2800000000000011</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU32">
-        <v>271.19</v>
-      </c>
-      <c r="CV32">
-        <f t="shared" si="24"/>
-        <v>1.4900000000000091</v>
-      </c>
     </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -10946,7 +10114,7 @@
         <v>3.0300000000000011</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>17</v>
@@ -10959,7 +10127,7 @@
         <v>1.6999999999999886</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V33" t="s">
         <v>27</v>
@@ -10972,7 +10140,7 @@
         <v>1.3700000000000045</v>
       </c>
       <c r="Y33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s">
         <v>5</v>
@@ -10985,7 +10153,7 @@
         <v>1.2999999999999545</v>
       </c>
       <c r="AC33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD33" s="1" t="s">
         <v>16</v>
@@ -10998,7 +10166,7 @@
         <v>4.6500000000000057</v>
       </c>
       <c r="AG33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s">
         <v>27</v>
@@ -11011,7 +10179,7 @@
         <v>0.65000000000000568</v>
       </c>
       <c r="AK33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL33" t="s">
         <v>18</v>
@@ -11024,7 +10192,7 @@
         <v>0.5</v>
       </c>
       <c r="AO33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP33" t="s">
         <v>11</v>
@@ -11037,7 +10205,7 @@
         <v>3.1699999999999875</v>
       </c>
       <c r="AS33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT33" t="s">
         <v>5</v>
@@ -11050,7 +10218,7 @@
         <v>6.8999999999999773</v>
       </c>
       <c r="BA33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB33" t="s">
         <v>18</v>
@@ -11063,7 +10231,7 @@
         <v>0.5</v>
       </c>
       <c r="BE33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF33" t="s">
         <v>11</v>
@@ -11076,7 +10244,7 @@
         <v>8.0999999999999943</v>
       </c>
       <c r="BI33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ33" t="s">
         <v>9</v>
@@ -11089,7 +10257,7 @@
         <v>5.3000000000000114</v>
       </c>
       <c r="BQ33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR33" s="1" t="s">
         <v>15</v>
@@ -11102,7 +10270,7 @@
         <v>2.25</v>
       </c>
       <c r="BU33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV33" t="s">
         <v>11</v>
@@ -11115,7 +10283,7 @@
         <v>0.70000000000001705</v>
       </c>
       <c r="BY33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ33" s="1" t="s">
         <v>16</v>
@@ -11128,7 +10296,7 @@
         <v>5.3000000000000114</v>
       </c>
       <c r="CC33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD33" t="s">
         <v>9</v>
@@ -11141,10 +10309,10 @@
         <v>3</v>
       </c>
       <c r="CG33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CI33">
         <v>222.7</v>
@@ -11154,7 +10322,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="CK33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL33" t="s">
         <v>11</v>
@@ -11166,34 +10334,8 @@
         <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="CO33" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP33" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ33">
-        <v>240.61</v>
-      </c>
-      <c r="CR33">
-        <f t="shared" si="23"/>
-        <v>4.1000000000000227</v>
-      </c>
-      <c r="CS33" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CU33">
-        <v>272.89</v>
-      </c>
-      <c r="CV33">
-        <f t="shared" si="24"/>
-        <v>1.6999999999999886</v>
-      </c>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -11234,7 +10376,7 @@
         <v>2.5099999999999909</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N34" t="s">
         <v>11</v>
@@ -11247,7 +10389,7 @@
         <v>1.9000000000000341</v>
       </c>
       <c r="U34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>23</v>
@@ -11260,7 +10402,7 @@
         <v>0.95000000000001705</v>
       </c>
       <c r="Y34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s">
         <v>11</v>
@@ -11273,7 +10415,7 @@
         <v>2.8000000000000114</v>
       </c>
       <c r="AC34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD34" t="s">
         <v>3</v>
@@ -11286,7 +10428,7 @@
         <v>5.2800000000000011</v>
       </c>
       <c r="AG34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>15</v>
@@ -11299,7 +10441,7 @@
         <v>2.75</v>
       </c>
       <c r="AK34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL34" t="s">
         <v>11</v>
@@ -11312,7 +10454,7 @@
         <v>0.56999999999999318</v>
       </c>
       <c r="AO34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP34" t="s">
         <v>9</v>
@@ -11325,7 +10467,7 @@
         <v>1.1299999999999955</v>
       </c>
       <c r="AS34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT34" s="1" t="s">
         <v>17</v>
@@ -11338,7 +10480,7 @@
         <v>1.5</v>
       </c>
       <c r="BA34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB34" t="s">
         <v>9</v>
@@ -11351,7 +10493,7 @@
         <v>4.3999999999999773</v>
       </c>
       <c r="BE34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF34" s="1" t="s">
         <v>16</v>
@@ -11364,7 +10506,7 @@
         <v>5.3000000000000114</v>
       </c>
       <c r="BI34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ34" t="s">
         <v>11</v>
@@ -11377,10 +10519,10 @@
         <v>6</v>
       </c>
       <c r="BQ34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BS34">
         <v>208.16</v>
@@ -11390,7 +10532,7 @@
         <v>0.34999999999999432</v>
       </c>
       <c r="BU34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV34" t="s">
         <v>27</v>
@@ -11403,7 +10545,7 @@
         <v>0.5</v>
       </c>
       <c r="BY34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ34" t="s">
         <v>11</v>
@@ -11416,7 +10558,7 @@
         <v>1.1000000000000227</v>
       </c>
       <c r="CC34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD34" t="s">
         <v>11</v>
@@ -11429,7 +10571,7 @@
         <v>8.0099999999999909</v>
       </c>
       <c r="CG34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH34" t="s">
         <v>3</v>
@@ -11442,7 +10584,7 @@
         <v>7.3000000000000114</v>
       </c>
       <c r="CK34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL34" s="1" t="s">
         <v>17</v>
@@ -11454,34 +10596,8 @@
         <f t="shared" si="22"/>
         <v>1.6000000000000227</v>
       </c>
-      <c r="CO34" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP34" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ34">
-        <v>244.61</v>
-      </c>
-      <c r="CR34">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="CS34" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT34" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU34">
-        <v>274.79000000000002</v>
-      </c>
-      <c r="CV34">
-        <f t="shared" si="24"/>
-        <v>1.9000000000000341</v>
-      </c>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -11522,7 +10638,7 @@
         <v>1.4399999999999977</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N35" t="s">
         <v>3</v>
@@ -11535,7 +10651,7 @@
         <v>8.1800000000000068</v>
       </c>
       <c r="U35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V35" t="s">
         <v>27</v>
@@ -11548,7 +10664,7 @@
         <v>2.9599999999999795</v>
       </c>
       <c r="Y35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s">
         <v>5</v>
@@ -11561,7 +10677,7 @@
         <v>7.0400000000000205</v>
       </c>
       <c r="AC35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD35" t="s">
         <v>5</v>
@@ -11574,7 +10690,7 @@
         <v>7.9599999999999795</v>
       </c>
       <c r="AG35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s">
         <v>11</v>
@@ -11587,7 +10703,7 @@
         <v>11.650000000000006</v>
       </c>
       <c r="AK35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL35" s="1" t="s">
         <v>15</v>
@@ -11600,7 +10716,7 @@
         <v>2.5500000000000114</v>
       </c>
       <c r="AO35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP35" t="s">
         <v>3</v>
@@ -11613,7 +10729,7 @@
         <v>7.8000000000000114</v>
       </c>
       <c r="AS35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT35" t="s">
         <v>11</v>
@@ -11626,7 +10742,7 @@
         <v>2.1000000000000227</v>
       </c>
       <c r="BA35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB35" t="s">
         <v>11</v>
@@ -11639,7 +10755,7 @@
         <v>12.900000000000006</v>
       </c>
       <c r="BE35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF35" t="s">
         <v>11</v>
@@ -11652,7 +10768,7 @@
         <v>5.0999999999999943</v>
       </c>
       <c r="BI35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ35" t="s">
         <v>3</v>
@@ -11665,7 +10781,7 @@
         <v>1.5</v>
       </c>
       <c r="BQ35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR35" t="s">
         <v>3</v>
@@ -11678,7 +10794,7 @@
         <v>5.3499999999999943</v>
       </c>
       <c r="BU35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV35" t="s">
         <v>11</v>
@@ -11691,7 +10807,7 @@
         <v>7.5699999999999932</v>
       </c>
       <c r="BY35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ35" t="s">
         <v>3</v>
@@ -11704,7 +10820,7 @@
         <v>0.39999999999997726</v>
       </c>
       <c r="CC35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD35" t="s">
         <v>3</v>
@@ -11717,7 +10833,7 @@
         <v>2.5999999999999943</v>
       </c>
       <c r="CG35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH35" t="s">
         <v>11</v>
@@ -11730,7 +10846,7 @@
         <v>4.9000000000000057</v>
       </c>
       <c r="CK35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL35" t="s">
         <v>11</v>
@@ -11742,34 +10858,8 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="CO35" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP35" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ35">
-        <v>258.52999999999997</v>
-      </c>
-      <c r="CR35">
-        <f t="shared" si="23"/>
-        <v>13.919999999999959</v>
-      </c>
-      <c r="CS35" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT35" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU35">
-        <v>282.97000000000003</v>
-      </c>
-      <c r="CV35">
-        <f t="shared" si="24"/>
-        <v>8.1800000000000068</v>
-      </c>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -11810,7 +10900,7 @@
         <v>6.1499999999999773</v>
       </c>
       <c r="U36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V36" t="s">
         <v>11</v>
@@ -11823,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD36" s="1" t="s">
         <v>17</v>
@@ -11836,7 +10926,7 @@
         <v>1.3800000000000239</v>
       </c>
       <c r="AG36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s">
         <v>18</v>
@@ -11849,7 +10939,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="AK36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL36" t="s">
         <v>3</v>
@@ -11862,10 +10952,10 @@
         <v>11.95999999999998</v>
       </c>
       <c r="AO36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AQ36">
         <v>186.75</v>
@@ -11875,7 +10965,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT36" t="s">
         <v>3</v>
@@ -11888,7 +10978,7 @@
         <v>5.8199999999999932</v>
       </c>
       <c r="BA36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB36" t="s">
         <v>5</v>
@@ -11901,7 +10991,7 @@
         <v>8.0500000000000114</v>
       </c>
       <c r="BE36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF36" s="1" t="s">
         <v>17</v>
@@ -11914,7 +11004,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="BI36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ36" t="s">
         <v>9</v>
@@ -11927,7 +11017,7 @@
         <v>4.5</v>
       </c>
       <c r="BQ36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR36" t="s">
         <v>11</v>
@@ -11940,7 +11030,7 @@
         <v>6.5400000000000205</v>
       </c>
       <c r="BU36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV36" t="s">
         <v>27</v>
@@ -11953,7 +11043,7 @@
         <v>1.7999999999999829</v>
       </c>
       <c r="BY36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ36" t="s">
         <v>11</v>
@@ -11966,7 +11056,7 @@
         <v>5.8500000000000227</v>
       </c>
       <c r="CC36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD36" t="s">
         <v>11</v>
@@ -11979,7 +11069,7 @@
         <v>6.4500000000000171</v>
       </c>
       <c r="CG36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH36" t="s">
         <v>27</v>
@@ -11991,21 +11081,8 @@
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="CO36" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ36">
-        <v>260.51</v>
-      </c>
-      <c r="CR36">
-        <f t="shared" si="23"/>
-        <v>1.9800000000000182</v>
-      </c>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12046,7 +11123,7 @@
         <v>5.3000000000000114</v>
       </c>
       <c r="U37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V37" t="s">
         <v>27</v>
@@ -12059,7 +11136,7 @@
         <v>3.1299999999999955</v>
       </c>
       <c r="AC37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD37" t="s">
         <v>3</v>
@@ -12072,7 +11149,7 @@
         <v>4.2499999999999716</v>
       </c>
       <c r="AG37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s">
         <v>9</v>
@@ -12085,7 +11162,7 @@
         <v>4</v>
       </c>
       <c r="AK37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL37" t="s">
         <v>18</v>
@@ -12098,7 +11175,7 @@
         <v>0.35000000000002274</v>
       </c>
       <c r="AO37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP37" t="s">
         <v>18</v>
@@ -12111,7 +11188,7 @@
         <v>0.30000000000001137</v>
       </c>
       <c r="AS37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT37" t="s">
         <v>5</v>
@@ -12124,7 +11201,7 @@
         <v>2</v>
       </c>
       <c r="BA37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB37" t="s">
         <v>3</v>
@@ -12137,7 +11214,7 @@
         <v>8.7999999999999829</v>
       </c>
       <c r="BE37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF37" t="s">
         <v>11</v>
@@ -12150,7 +11227,7 @@
         <v>6.3999999999999773</v>
       </c>
       <c r="BI37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ37" t="s">
         <v>3</v>
@@ -12163,7 +11240,7 @@
         <v>28.099999999999994</v>
       </c>
       <c r="BQ37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR37" t="s">
         <v>27</v>
@@ -12176,7 +11253,7 @@
         <v>1.3999999999999773</v>
       </c>
       <c r="BU37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV37" t="s">
         <v>11</v>
@@ -12189,7 +11266,7 @@
         <v>2.8600000000000136</v>
       </c>
       <c r="BY37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ37" s="1" t="s">
         <v>17</v>
@@ -12202,7 +11279,7 @@
         <v>1.6499999999999773</v>
       </c>
       <c r="CC37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD37" t="s">
         <v>3</v>
@@ -12215,7 +11292,7 @@
         <v>4.3999999999999773</v>
       </c>
       <c r="CG37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH37" t="s">
         <v>11</v>
@@ -12227,21 +11304,8 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="CO37" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CQ37">
-        <v>265.8</v>
-      </c>
-      <c r="CR37">
-        <f t="shared" si="23"/>
-        <v>5.2900000000000205</v>
-      </c>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -12269,7 +11333,7 @@
         <v>2.6599999999999966</v>
       </c>
       <c r="U38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V38" t="s">
         <v>11</v>
@@ -12282,7 +11346,7 @@
         <v>1.2000000000000171</v>
       </c>
       <c r="AC38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD38" t="s">
         <v>5</v>
@@ -12295,7 +11359,7 @@
         <v>7.7700000000000387</v>
       </c>
       <c r="AG38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s">
         <v>3</v>
@@ -12308,7 +11372,7 @@
         <v>0.89999999999997726</v>
       </c>
       <c r="AK38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL38" t="s">
         <v>3</v>
@@ -12321,7 +11385,7 @@
         <v>2.0300000000000011</v>
       </c>
       <c r="AO38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP38" t="s">
         <v>9</v>
@@ -12334,7 +11398,7 @@
         <v>0.14999999999997726</v>
       </c>
       <c r="BA38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB38" t="s">
         <v>11</v>
@@ -12347,7 +11411,7 @@
         <v>2.9499999999999886</v>
       </c>
       <c r="BE38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BF38" t="s">
         <v>3</v>
@@ -12360,7 +11424,7 @@
         <v>3.6000000000000227</v>
       </c>
       <c r="BI38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ38" t="s">
         <v>11</v>
@@ -12373,7 +11437,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="BQ38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR38" t="s">
         <v>3</v>
@@ -12386,7 +11450,7 @@
         <v>0.5</v>
       </c>
       <c r="BU38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV38" t="s">
         <v>27</v>
@@ -12399,7 +11463,7 @@
         <v>12.340000000000003</v>
       </c>
       <c r="BY38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ38" t="s">
         <v>9</v>
@@ -12412,7 +11476,7 @@
         <v>0.10000000000002274</v>
       </c>
       <c r="CC38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD38" t="s">
         <v>11</v>
@@ -12425,7 +11489,7 @@
         <v>7.4000000000000057</v>
       </c>
       <c r="CG38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH38" t="s">
         <v>3</v>
@@ -12437,21 +11501,8 @@
         <f t="shared" si="21"/>
         <v>15.999999999999972</v>
       </c>
-      <c r="CO38" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP38" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ38">
-        <v>268.69</v>
-      </c>
-      <c r="CR38">
-        <f t="shared" si="23"/>
-        <v>2.8899999999999864</v>
-      </c>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -12479,7 +11530,7 @@
         <v>2.6000000000000227</v>
       </c>
       <c r="U39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V39" t="s">
         <v>27</v>
@@ -12492,7 +11543,7 @@
         <v>4.9000000000000057</v>
       </c>
       <c r="AC39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD39" t="s">
         <v>7</v>
@@ -12505,7 +11556,7 @@
         <v>2.5999999999999659</v>
       </c>
       <c r="AG39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH39" t="s">
         <v>18</v>
@@ -12518,7 +11569,7 @@
         <v>0.15000000000000568</v>
       </c>
       <c r="AK39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL39" t="s">
         <v>11</v>
@@ -12531,7 +11582,7 @@
         <v>2.5999999999999943</v>
       </c>
       <c r="AO39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP39" t="s">
         <v>5</v>
@@ -12544,7 +11595,7 @@
         <v>3</v>
       </c>
       <c r="BA39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB39" s="1" t="s">
         <v>16</v>
@@ -12557,7 +11608,7 @@
         <v>6.5</v>
       </c>
       <c r="BI39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ39" s="1" t="s">
         <v>16</v>
@@ -12570,7 +11621,7 @@
         <v>5.2999999999999829</v>
       </c>
       <c r="BQ39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR39" t="s">
         <v>11</v>
@@ -12583,7 +11634,7 @@
         <v>13.25</v>
       </c>
       <c r="BU39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV39" t="s">
         <v>3</v>
@@ -12596,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="BY39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ39" t="s">
         <v>3</v>
@@ -12609,7 +11660,7 @@
         <v>1.8499999999999659</v>
       </c>
       <c r="CC39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD39" s="1" t="s">
         <v>16</v>
@@ -12622,7 +11673,7 @@
         <v>5.660000000000025</v>
       </c>
       <c r="CG39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH39" t="s">
         <v>9</v>
@@ -12634,21 +11685,8 @@
         <f t="shared" si="21"/>
         <v>3.0500000000000114</v>
       </c>
-      <c r="CO39" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP39" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ39">
-        <v>273.51</v>
-      </c>
-      <c r="CR39">
-        <f t="shared" si="23"/>
-        <v>4.8199999999999932</v>
-      </c>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -12677,7 +11715,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="U40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V40" t="s">
         <v>11</v>
@@ -12690,7 +11728,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="AC40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD40" t="s">
         <v>5</v>
@@ -12703,7 +11741,7 @@
         <v>17.189999999999998</v>
       </c>
       <c r="AG40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH40" t="s">
         <v>27</v>
@@ -12716,7 +11754,7 @@
         <v>0.70000000000001705</v>
       </c>
       <c r="AK40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL40" t="s">
         <v>3</v>
@@ -12729,7 +11767,7 @@
         <v>1.2999999999999829</v>
       </c>
       <c r="AO40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP40" t="s">
         <v>11</v>
@@ -12742,7 +11780,7 @@
         <v>0.5</v>
       </c>
       <c r="BA40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB40" t="s">
         <v>9</v>
@@ -12755,7 +11793,7 @@
         <v>3.5</v>
       </c>
       <c r="BI40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ40" t="s">
         <v>9</v>
@@ -12768,7 +11806,7 @@
         <v>0.85000000000002274</v>
       </c>
       <c r="BQ40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR40" t="s">
         <v>3</v>
@@ -12781,7 +11819,7 @@
         <v>2.5</v>
       </c>
       <c r="BU40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV40" t="s">
         <v>11</v>
@@ -12794,7 +11832,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="BY40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BZ40" t="s">
         <v>11</v>
@@ -12807,7 +11845,7 @@
         <v>7.8000000000000114</v>
       </c>
       <c r="CC40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD40" t="s">
         <v>11</v>
@@ -12820,7 +11858,7 @@
         <v>5.9699999999999704</v>
       </c>
       <c r="CG40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH40" s="1" t="s">
         <v>16</v>
@@ -12832,21 +11870,8 @@
         <f t="shared" si="21"/>
         <v>5.9399999999999977</v>
       </c>
-      <c r="CO40" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP40" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ40">
-        <v>274.3</v>
-      </c>
-      <c r="CR40">
-        <f t="shared" si="23"/>
-        <v>0.79000000000002046</v>
-      </c>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -12875,7 +11900,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="U41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V41" t="s">
         <v>27</v>
@@ -12888,7 +11913,7 @@
         <v>1.5</v>
       </c>
       <c r="AC41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD41" t="s">
         <v>5</v>
@@ -12901,7 +11926,7 @@
         <v>14.960000000000036</v>
       </c>
       <c r="AG41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH41" t="s">
         <v>18</v>
@@ -12914,7 +11939,7 @@
         <v>0.54999999999998295</v>
       </c>
       <c r="AK41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL41" t="s">
         <v>18</v>
@@ -12927,7 +11952,7 @@
         <v>0.35000000000002274</v>
       </c>
       <c r="AO41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP41" t="s">
         <v>3</v>
@@ -12940,7 +11965,7 @@
         <v>2.4000000000000057</v>
       </c>
       <c r="BA41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB41" t="s">
         <v>3</v>
@@ -12953,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="BI41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ41" t="s">
         <v>18</v>
@@ -12966,7 +11991,7 @@
         <v>0.14999999999997726</v>
       </c>
       <c r="BQ41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR41" t="s">
         <v>11</v>
@@ -12979,7 +12004,7 @@
         <v>1.9000000000000057</v>
       </c>
       <c r="BU41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV41" t="s">
         <v>3</v>
@@ -12992,7 +12017,7 @@
         <v>3.5999999999999943</v>
       </c>
       <c r="CC41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD41" s="1" t="s">
         <v>17</v>
@@ -13005,7 +12030,7 @@
         <v>2</v>
       </c>
       <c r="CG41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH41" t="s">
         <v>11</v>
@@ -13017,21 +12042,8 @@
         <f t="shared" si="21"/>
         <v>0.50999999999999091</v>
       </c>
-      <c r="CO41" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CQ41">
-        <v>276</v>
-      </c>
-      <c r="CR41">
-        <f t="shared" si="23"/>
-        <v>1.6999999999999886</v>
-      </c>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -13060,7 +12072,7 @@
       </c>
       <c r="J42" s="2"/>
       <c r="U42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V42" t="s">
         <v>11</v>
@@ -13073,7 +12085,7 @@
         <v>1.2299999999999898</v>
       </c>
       <c r="AG42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s">
         <v>11</v>
@@ -13086,7 +12098,7 @@
         <v>-195.1</v>
       </c>
       <c r="AK42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL42" t="s">
         <v>11</v>
@@ -13099,7 +12111,7 @@
         <v>15.309999999999974</v>
       </c>
       <c r="AO42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP42" t="s">
         <v>11</v>
@@ -13112,7 +12124,7 @@
         <v>14.629999999999995</v>
       </c>
       <c r="BA42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB42" s="1" t="s">
         <v>17</v>
@@ -13125,10 +12137,10 @@
         <v>1.5</v>
       </c>
       <c r="BI42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BK42">
         <v>260.89999999999998</v>
@@ -13138,7 +12150,7 @@
         <v>0.5</v>
       </c>
       <c r="BQ42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR42" t="s">
         <v>27</v>
@@ -13151,7 +12163,7 @@
         <v>6.4000000000000057</v>
       </c>
       <c r="BU42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV42" t="s">
         <v>11</v>
@@ -13164,7 +12176,7 @@
         <v>3.2000000000000171</v>
       </c>
       <c r="CC42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD42" t="s">
         <v>11</v>
@@ -13177,7 +12189,7 @@
         <v>11.03000000000003</v>
       </c>
       <c r="CG42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH42" t="s">
         <v>3</v>
@@ -13189,21 +12201,8 @@
         <f t="shared" si="21"/>
         <v>5.5</v>
       </c>
-      <c r="CO42" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP42" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ42">
-        <v>282.67</v>
-      </c>
-      <c r="CR42">
-        <f t="shared" si="23"/>
-        <v>6.6700000000000159</v>
-      </c>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -13232,7 +12231,7 @@
       </c>
       <c r="J43" s="2"/>
       <c r="U43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V43" t="s">
         <v>3</v>
@@ -13245,7 +12244,7 @@
         <v>1.2000000000000171</v>
       </c>
       <c r="AG43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH43" t="s">
         <v>5</v>
@@ -13258,7 +12257,7 @@
         <v>229.4</v>
       </c>
       <c r="AK43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL43" t="s">
         <v>3</v>
@@ -13271,7 +12270,7 @@
         <v>2</v>
       </c>
       <c r="AO43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP43" t="s">
         <v>9</v>
@@ -13284,7 +12283,7 @@
         <v>1.4000000000000057</v>
       </c>
       <c r="BA43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB43" t="s">
         <v>11</v>
@@ -13297,7 +12296,7 @@
         <v>3.7000000000000455</v>
       </c>
       <c r="BI43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ43" t="s">
         <v>9</v>
@@ -13310,7 +12309,7 @@
         <v>1.8500000000000227</v>
       </c>
       <c r="BQ43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR43" t="s">
         <v>11</v>
@@ -13323,7 +12322,7 @@
         <v>2.7800000000000011</v>
       </c>
       <c r="BU43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV43" t="s">
         <v>3</v>
@@ -13336,7 +12335,7 @@
         <v>1.5999999999999943</v>
       </c>
       <c r="CC43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD43" t="s">
         <v>7</v>
@@ -13349,7 +12348,7 @@
         <v>17.509999999999991</v>
       </c>
       <c r="CG43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH43" t="s">
         <v>27</v>
@@ -13361,21 +12360,8 @@
         <f t="shared" si="21"/>
         <v>0.87999999999999545</v>
       </c>
-      <c r="CO43" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP43" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ43">
-        <v>288.49</v>
-      </c>
-      <c r="CR43">
-        <f t="shared" si="23"/>
-        <v>5.8199999999999932</v>
-      </c>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -13404,7 +12390,7 @@
       </c>
       <c r="J44" s="2"/>
       <c r="U44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V44" t="s">
         <v>11</v>
@@ -13417,7 +12403,7 @@
         <v>5.3999999999999773</v>
       </c>
       <c r="AG44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH44" t="s">
         <v>11</v>
@@ -13430,7 +12416,7 @@
         <v>1.9000000000000057</v>
       </c>
       <c r="AK44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL44" t="s">
         <v>11</v>
@@ -13443,7 +12429,7 @@
         <v>3.5300000000000011</v>
       </c>
       <c r="AO44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP44" t="s">
         <v>3</v>
@@ -13456,7 +12442,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="BA44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB44" t="s">
         <v>3</v>
@@ -13469,7 +12455,7 @@
         <v>6.1999999999999886</v>
       </c>
       <c r="BI44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ44" s="1" t="s">
         <v>17</v>
@@ -13482,7 +12468,7 @@
         <v>1.75</v>
       </c>
       <c r="BQ44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR44" t="s">
         <v>3</v>
@@ -13495,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="BU44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV44" t="s">
         <v>11</v>
@@ -13508,7 +12494,7 @@
         <v>9.0499999999999829</v>
       </c>
       <c r="CC44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD44" t="s">
         <v>3</v>
@@ -13521,7 +12507,7 @@
         <v>7.5</v>
       </c>
       <c r="CG44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH44" s="1" t="s">
         <v>17</v>
@@ -13533,21 +12519,8 @@
         <f t="shared" si="21"/>
         <v>1.6900000000000546</v>
       </c>
-      <c r="CO44" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP44" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ44">
-        <v>303.45</v>
-      </c>
-      <c r="CR44">
-        <f t="shared" si="23"/>
-        <v>14.95999999999998</v>
-      </c>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -13576,7 +12549,7 @@
       </c>
       <c r="J45" s="2"/>
       <c r="U45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V45" t="s">
         <v>27</v>
@@ -13589,7 +12562,7 @@
         <v>2</v>
       </c>
       <c r="AG45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH45" s="1" t="s">
         <v>16</v>
@@ -13602,7 +12575,7 @@
         <v>4.6999999999999886</v>
       </c>
       <c r="AK45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL45" t="s">
         <v>5</v>
@@ -13615,7 +12588,7 @@
         <v>6.3600000000000136</v>
       </c>
       <c r="AO45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP45" t="s">
         <v>9</v>
@@ -13628,7 +12601,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="BI45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ45" t="s">
         <v>9</v>
@@ -13641,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="BQ45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR45" t="s">
         <v>5</v>
@@ -13654,7 +12627,7 @@
         <v>9.7199999999999989</v>
       </c>
       <c r="BU45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV45" t="s">
         <v>3</v>
@@ -13667,7 +12640,7 @@
         <v>4.7000000000000171</v>
       </c>
       <c r="CC45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CD45" t="s">
         <v>5</v>
@@ -13680,7 +12653,7 @@
         <v>15.599999999999966</v>
       </c>
       <c r="CG45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH45" t="s">
         <v>27</v>
@@ -13692,21 +12665,8 @@
         <f t="shared" si="21"/>
         <v>0.32999999999998408</v>
       </c>
-      <c r="CO45" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP45" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ45">
-        <v>315.13</v>
-      </c>
-      <c r="CR45">
-        <f t="shared" si="23"/>
-        <v>11.680000000000007</v>
-      </c>
     </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -13735,7 +12695,7 @@
       </c>
       <c r="J46" s="2"/>
       <c r="U46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V46" t="s">
         <v>11</v>
@@ -13748,7 +12708,7 @@
         <v>8.75</v>
       </c>
       <c r="AG46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH46" t="s">
         <v>11</v>
@@ -13761,7 +12721,7 @@
         <v>3.0999999999999943</v>
       </c>
       <c r="AK46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL46" t="s">
         <v>11</v>
@@ -13774,7 +12734,7 @@
         <v>7.039999999999992</v>
       </c>
       <c r="AO46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP46" t="s">
         <v>3</v>
@@ -13787,7 +12747,7 @@
         <v>1.5</v>
       </c>
       <c r="BI46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ46" t="s">
         <v>3</v>
@@ -13800,7 +12760,7 @@
         <v>1.3999999999999773</v>
       </c>
       <c r="BQ46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR46" t="s">
         <v>3</v>
@@ -13813,7 +12773,7 @@
         <v>2.8999999999999773</v>
       </c>
       <c r="BU46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV46" t="s">
         <v>5</v>
@@ -13826,7 +12786,7 @@
         <v>0.75</v>
       </c>
       <c r="CG46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH46" t="s">
         <v>3</v>
@@ -13838,21 +12798,8 @@
         <f t="shared" si="21"/>
         <v>2.6999999999999886</v>
       </c>
-      <c r="CO46" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP46" t="s">
-        <v>11</v>
-      </c>
-      <c r="CQ46">
-        <v>319.23</v>
-      </c>
-      <c r="CR46">
-        <f t="shared" si="23"/>
-        <v>4.1000000000000227</v>
-      </c>
     </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -13881,7 +12828,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="U47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>16</v>
@@ -13894,7 +12841,7 @@
         <v>4.9000000000000057</v>
       </c>
       <c r="AG47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH47" t="s">
         <v>3</v>
@@ -13907,7 +12854,7 @@
         <v>7.4500000000000171</v>
       </c>
       <c r="AK47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL47" s="1" t="s">
         <v>16</v>
@@ -13920,7 +12867,7 @@
         <v>4.7000000000000171</v>
       </c>
       <c r="AO47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP47" t="s">
         <v>11</v>
@@ -13933,7 +12880,7 @@
         <v>2.5300000000000011</v>
       </c>
       <c r="BI47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BJ47" t="s">
         <v>11</v>
@@ -13946,7 +12893,7 @@
         <v>7.5</v>
       </c>
       <c r="BQ47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR47" t="s">
         <v>11</v>
@@ -13959,7 +12906,7 @@
         <v>0.70000000000004547</v>
       </c>
       <c r="BU47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV47" t="s">
         <v>11</v>
@@ -13972,7 +12919,7 @@
         <v>1.710000000000008</v>
       </c>
       <c r="CG47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CH47" t="s">
         <v>11</v>
@@ -13984,21 +12931,8 @@
         <f t="shared" si="21"/>
         <v>6.6000000000000227</v>
       </c>
-      <c r="CO47" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP47" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ47">
-        <v>321.73</v>
-      </c>
-      <c r="CR47">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
     </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -14027,7 +12961,7 @@
       </c>
       <c r="J48" s="2"/>
       <c r="U48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V48" t="s">
         <v>11</v>
@@ -14040,7 +12974,7 @@
         <v>10.490000000000009</v>
       </c>
       <c r="AG48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>17</v>
@@ -14053,7 +12987,7 @@
         <v>1.4499999999999886</v>
       </c>
       <c r="AK48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL48" t="s">
         <v>3</v>
@@ -14066,7 +13000,7 @@
         <v>8.3700000000000045</v>
       </c>
       <c r="AO48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP48" t="s">
         <v>9</v>
@@ -14079,7 +13013,7 @@
         <v>0.59999999999999432</v>
       </c>
       <c r="BQ48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR48" t="s">
         <v>3</v>
@@ -14092,7 +13026,7 @@
         <v>3.8700000000000045</v>
       </c>
       <c r="BU48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV48" s="1" t="s">
         <v>16</v>
@@ -14104,21 +13038,8 @@
         <f t="shared" si="18"/>
         <v>4.5999999999999943</v>
       </c>
-      <c r="CO48" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP48" t="s">
-        <v>18</v>
-      </c>
-      <c r="CQ48">
-        <v>322.13</v>
-      </c>
-      <c r="CR48">
-        <f t="shared" si="23"/>
-        <v>0.39999999999997726</v>
-      </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -14147,7 +13068,7 @@
       </c>
       <c r="J49" s="2"/>
       <c r="U49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>17</v>
@@ -14160,7 +13081,7 @@
         <v>1.3999999999999773</v>
       </c>
       <c r="AG49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH49" t="s">
         <v>11</v>
@@ -14173,7 +13094,7 @@
         <v>6</v>
       </c>
       <c r="AK49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL49" t="s">
         <v>5</v>
@@ -14186,7 +13107,7 @@
         <v>4.8599999999999568</v>
       </c>
       <c r="AO49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP49" t="s">
         <v>3</v>
@@ -14199,7 +13120,7 @@
         <v>1.2000000000000171</v>
       </c>
       <c r="BQ49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR49" s="1" t="s">
         <v>16</v>
@@ -14212,7 +13133,7 @@
         <v>5.5999999999999659</v>
       </c>
       <c r="BU49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV49" t="s">
         <v>11</v>
@@ -14224,21 +13145,8 @@
         <f t="shared" si="18"/>
         <v>1.0699999999999932</v>
       </c>
-      <c r="CO49" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP49" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ49">
-        <v>327.19</v>
-      </c>
-      <c r="CR49">
-        <f t="shared" si="23"/>
-        <v>5.0600000000000023</v>
-      </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -14247,10 +13155,6 @@
       </c>
       <c r="C50">
         <v>342.83</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>15.639999999999986</v>
       </c>
       <c r="E50" t="s">
         <v>24</v>
@@ -14267,7 +13171,7 @@
       </c>
       <c r="J50" s="2"/>
       <c r="U50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V50" t="s">
         <v>27</v>
@@ -14280,7 +13184,7 @@
         <v>6.7000000000000455</v>
       </c>
       <c r="AG50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s">
         <v>3</v>
@@ -14293,7 +13197,7 @@
         <v>3.5</v>
       </c>
       <c r="AK50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL50" s="1" t="s">
         <v>17</v>
@@ -14306,7 +13210,7 @@
         <v>0.70000000000004547</v>
       </c>
       <c r="AO50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP50" t="s">
         <v>11</v>
@@ -14319,7 +13223,7 @@
         <v>0.79999999999998295</v>
       </c>
       <c r="BQ50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR50" t="s">
         <v>11</v>
@@ -14332,7 +13236,7 @@
         <v>2.1000000000000227</v>
       </c>
       <c r="BU50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV50" t="s">
         <v>3</v>
@@ -14344,21 +13248,8 @@
         <f t="shared" si="18"/>
         <v>6.5300000000000011</v>
       </c>
-      <c r="CO50" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP50" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ50">
-        <v>342.83</v>
-      </c>
-      <c r="CR50">
-        <f t="shared" si="23"/>
-        <v>15.639999999999986</v>
-      </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>24</v>
       </c>
@@ -14374,7 +13265,7 @@
       </c>
       <c r="J51" s="2"/>
       <c r="U51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V51" t="s">
         <v>11</v>
@@ -14387,7 +13278,7 @@
         <v>0.5</v>
       </c>
       <c r="AK51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL51" t="s">
         <v>11</v>
@@ -14400,7 +13291,7 @@
         <v>1.8999999999999773</v>
       </c>
       <c r="AO51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP51" t="s">
         <v>3</v>
@@ -14413,7 +13304,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="BQ51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR51" t="s">
         <v>3</v>
@@ -14426,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="BU51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV51" s="1" t="s">
         <v>17</v>
@@ -14439,10 +13330,10 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
       <c r="U52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V52" t="s">
         <v>3</v>
@@ -14455,7 +13346,7 @@
         <v>3.25</v>
       </c>
       <c r="AK52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL52" t="s">
         <v>3</v>
@@ -14468,7 +13359,7 @@
         <v>1.4599999999999795</v>
       </c>
       <c r="AO52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP52" t="s">
         <v>11</v>
@@ -14481,7 +13372,7 @@
         <v>3.7999999999999829</v>
       </c>
       <c r="BQ52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR52" t="s">
         <v>11</v>
@@ -14494,7 +13385,7 @@
         <v>2</v>
       </c>
       <c r="BU52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV52" t="s">
         <v>3</v>
@@ -14507,11 +13398,11 @@
         <v>2.839999999999975</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="H53"/>
       <c r="J53" s="2"/>
       <c r="U53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V53" t="s">
         <v>5</v>
@@ -14524,7 +13415,7 @@
         <v>7.8299999999999841</v>
       </c>
       <c r="AK53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL53" t="s">
         <v>11</v>
@@ -14537,7 +13428,7 @@
         <v>6.2700000000000387</v>
       </c>
       <c r="AO53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP53" t="s">
         <v>3</v>
@@ -14550,7 +13441,7 @@
         <v>2.2000000000000171</v>
       </c>
       <c r="BQ53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR53" s="1" t="s">
         <v>17</v>
@@ -14563,7 +13454,7 @@
         <v>1.4499999999999886</v>
       </c>
       <c r="BU53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV53" t="s">
         <v>11</v>
@@ -14576,9 +13467,9 @@
         <v>7.4200000000000159</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
       <c r="U54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V54" t="s">
         <v>3</v>
@@ -14591,7 +13482,7 @@
         <v>6.9300000000000068</v>
       </c>
       <c r="AK54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL54" t="s">
         <v>3</v>
@@ -14604,7 +13495,7 @@
         <v>5.2199999999999704</v>
       </c>
       <c r="AO54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP54" t="s">
         <v>11</v>
@@ -14617,7 +13508,7 @@
         <v>5</v>
       </c>
       <c r="BQ54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR54" t="s">
         <v>3</v>
@@ -14630,7 +13521,7 @@
         <v>2.3999999999999773</v>
       </c>
       <c r="BU54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV54" t="s">
         <v>5</v>
@@ -14643,9 +13534,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <f>C50-C49</f>
+        <v>15.639999999999986</v>
+      </c>
       <c r="U55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V55" t="s">
         <v>5</v>
@@ -14658,7 +13553,7 @@
         <v>14.870000000000005</v>
       </c>
       <c r="AK55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL55" t="s">
         <v>5</v>
@@ -14671,7 +13566,7 @@
         <v>17.420000000000016</v>
       </c>
       <c r="AO55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>16</v>
@@ -14684,7 +13579,7 @@
         <v>4.0999999999999943</v>
       </c>
       <c r="BQ55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR55" t="s">
         <v>11</v>
@@ -14697,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="BU55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV55" t="s">
         <v>7</v>
@@ -14710,9 +13605,9 @@
         <v>10.54000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AK56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL56" t="s">
         <v>5</v>
@@ -14725,7 +13620,7 @@
         <v>14.779999999999973</v>
       </c>
       <c r="AO56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP56" t="s">
         <v>9</v>
@@ -14738,7 +13633,7 @@
         <v>0.40000000000000568</v>
       </c>
       <c r="BQ56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR56" t="s">
         <v>5</v>
@@ -14751,7 +13646,7 @@
         <v>30.950000000000045</v>
       </c>
       <c r="BU56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BV56" t="s">
         <v>5</v>
@@ -14764,9 +13659,9 @@
         <v>15.289999999999964</v>
       </c>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP57" t="s">
         <v>3</v>
@@ -14779,7 +13674,7 @@
         <v>4.9299999999999784</v>
       </c>
       <c r="BQ57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR57" t="s">
         <v>9</v>
@@ -14792,9 +13687,9 @@
         <v>2.1999999999999886</v>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP58" t="s">
         <v>11</v>
@@ -14807,7 +13702,7 @@
         <v>3.1700000000000159</v>
       </c>
       <c r="BQ58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR58" t="s">
         <v>5</v>
@@ -14820,9 +13715,9 @@
         <v>14.099999999999966</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP59" s="1" t="s">
         <v>17</v>
@@ -14835,9 +13730,9 @@
         <v>1.0999999999999943</v>
       </c>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP60" t="s">
         <v>11</v>
@@ -14850,9 +13745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP61" t="s">
         <v>3</v>
@@ -14865,9 +13760,9 @@
         <v>2.2000000000000171</v>
       </c>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP62" t="s">
         <v>11</v>
@@ -14880,9 +13775,9 @@
         <v>3.8199999999999932</v>
       </c>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP63" t="s">
         <v>7</v>
@@ -14895,9 +13790,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AO64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP64" t="s">
         <v>3</v>
@@ -14912,10 +13807,10 @@
     </row>
     <row r="65" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AQ65">
         <v>271.14</v>
@@ -14927,7 +13822,7 @@
     </row>
     <row r="66" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP66" t="s">
         <v>5</v>
@@ -14942,7 +13837,7 @@
     </row>
     <row r="67" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP67" t="s">
         <v>7</v>
